--- a/web/assets/assets/gisa.xlsx
+++ b/web/assets/assets/gisa.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb-dev03\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F844142B-2932-4247-B84E-B2B4B809FB30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76629D17-4858-479F-9115-04A61EF5DE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1649BD6D-D179-446E-B5BC-9F41EA25AB64}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="792" uniqueCount="781">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1081" uniqueCount="1068">
   <si>
     <t>소프트웨어 생명주기</t>
   </si>
@@ -2966,6 +2966,1154 @@
   </si>
   <si>
     <t>소스 코드의 구문, 조건, 결정 등의 구조 코드 자체가 얼마나 테스트되었는지를 측정하는 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>쉘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자가 입력시킨 명령어 라인을 읽어 필요한 시스템 기능을 실행시키는 명령어 해석기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>커널</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>운영체제의 핵심이 되는 기능들이 모여있는 컴퓨터 프로그램 (기능 : 프로세스 관리, 기억장치 관리, 주변장치 관리, 파일 관리)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닉스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벨 연구소를 통해 만든 운영체제, 처음부터 다양신 시스템에 서로 인식할 수 있고 멀티 태스킹을 지원하도록 설계되어있음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리눅스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유닉스 기반으로 개발되고, 소스 코드가 공개된 오픈 소스 기반의 운영체제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>안드로이드</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>휴대용 장치를 위한 운영체제와 미들웨어 사용자 인터페이스 표준 응용 프로그램을 포함하고 있는 운영체제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반입 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스의 반입 시기를 결정하는 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배치 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스를 어느 위치에 저장할 것인지 결정하는 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>할당 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스를 어떤 방법으로 할당할 것인지 결정하는 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교체 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 프로세스를 제거할 것인지 결정하는 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최초 적합(First Fit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적재될 수 있는 가용 공간 중 첫 번째 분할에 할당하는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최적 적합(Best Fit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가용 공간중 가장 크기가 비슷한 공간을 선택하여 프로세스를 적재하는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최악 적합(Worst Fit)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스의 가용 공간 중에서 가장 큰 공간에 할당하는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FIFO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 페이지가 주기억장치에 적재될 떄마다 그때의 시간을 기억시켜 가장 먼저 들어와 오래 있던 페이지를 교체하는 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간을 확인하여 가장 오랫동안 사용되지 않은 페이지를 선택하여 교체하는 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LFU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용 횟수를 확인하여 참조 횟수가 가장 적은 페이지를 선택하여 교체하는 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OPT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>앞으로 가장 오랫동안 사용하지 않을 페이지를 교체하는 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NUR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LRU와 비슷한 알고리즘으로 최근에 사용하지 않은 페이지를 교체하는 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCR</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 오랫동안 주기억장치에 있던 페이지 중 자주 사용되는 페이지의 교체를 방지하기 위한 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>메모리 단편화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>분할된 주기억장치에 프로세스를 할당, 반납 과정에서 사용되지 못하고 낭비되는 기억장치가 발생하는 현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스레싱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어떤 프로세스가 계속적으로 페이지 부재가 발생하여 프로세스의 실제 처리 시간보다 페이지 교체 시간이 더 많아지는 현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>워킹세트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>각 프로세스가 많이 참조하는 페이지들의 집합을 주기억장치 공간에 계속 상주하게 하여 빈번한 페이지 교체 현상을 줄이는 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 부재 빈도(PFF)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>페이지 부재율의 상한과 하한을 정해서 직접적으로 페이지 부재율을 예측하고 조절하는 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지역성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스가 실행되는 동안 주기억장치를 참조할 때 일부 페이지만 집중적으로 참조하는 특성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 지역성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>최근 사용되었던 기억장소들이 집중적으로 액세스하는 현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공간 지역성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일정 위치의 페이지를 집중적으로 액세스하는 현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순차 지역성</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순차적으로 엑세스되는 현상</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU에 의해 처리되는 프로그램</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>생성, 준비, 실행, 대기, 완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스 상태 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디스패치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비 상태에 있는 여러 프로세스 중 실행될 프로세스를 선정하여 CPU를 할당</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>타이머 런 아웃</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPU를 할당받은 프로세스는 지정된 시간이 초과되면 스케줄러에 의해 PCB저장 CPU반납 후 다시 준비 상태로 전이됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>블록 = 입출력 발생</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>실행 상태에 있는 프로세스가 지정된 할당시간을 초과하기 전 입출력이나 기타사건이 발생하면 CPU를 스스로 반납하고 입출력 완료될 때까지 대기상태로 전이됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>웨이크 업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>어느 순간 입출력이 종료되면 대기 상태의 프로세스에게 입출력 종료 사실을 알려주고 준비 상태로 전이됨</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선점형 스케줄링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 프로세스가 CPU를 차지하고 있을 때 우선순위가 높은 다른 프로세스가 현재 프로세스를 중단시키고 CPU를 점유하는 스케줄링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비선점형 스케줄링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스가 CPU를 할당받으면 작업 종료 후 CPU 반환 시까지 다른 프로세스는 CPU점유가 불가능한 스케줄링 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라운드 로빈(RR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스는 같은 크기의 CPU시간을 할당 시간내에 처리를 못하면 리스트 끝에 보내지고 CPU는 다음 프로세스로 넘어가능 선점형 스케줄링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SRT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가장 짧은 시간이 소요되는 프로세스를 먼저 수행하는 선점형 스케줄링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다단계 큐(MLQ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다단계 피드백 큐(MLFQ)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업들을 여러 종류 그룹으로 분할, 여러 개의 큐를 이용하여 상위단계 작업에 의한 하위단계 작업이 선점 당하는 선점형 스케줄링 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCFS와 라운드 로빈 스케줄링 기법을 혼합한 것으로 새 프로세스는 높은 우선순위 프로세스의 실행시간이 길어질수록 점점 낮은 우선순위 큐로 이동당하는 선점형 스케줄링 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>우선순위(Priority)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스별로 우선순위가 주어지고 우선순위에 따라 CPU를 할당하는 비선점형 스케줄링 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기한부(Deadline)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>작업들이 명시된 시간이나 기한 내에 완료되도록 계획 하는 비선점형 스케줄링 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FCFS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스가 대기 큐에 도착한 순서에 따라 CPU를 할당하는 비선점형 스케줄링 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SJF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스가 도착하는 시점에 따라 그 당시 가장 작은 서비스 시간을 갖는 프로세스가 종료 시까지 자원을 점유하는 비선점형 스케줄링 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HRN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">대기중인 프로세스 중 현재 응답률이 가장 높은것을 선택하는 비선점형 스케줄링 기법 </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교착 상태(Deadlock)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다중프로세싱 환경에서 두 개 이상의 프로세스가 특정 자원할당을 무한정 대기하는 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상호배제(Mutual Exclusive)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로세스가 자원을 배타적으로 점유하여 다른 프로세스가 그 자원을 사용할 수 없는 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점유와 대기(Hold &amp; Wait)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 프로세스가 자원을 점유하고 있으면서 또 다른 자원을 요청하여 대기하고 있는 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비선점(Non Preemption)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 프로세스가 점유한 자원에 대해 다른 프로세스가 선점할 수 없고 오직 점유한 프로세스만이 해제 가능한 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>환형 대기(Circular Wait)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 개 이상의 프로세스 간 자원의 점유와 대기가 하나의 원형을 구성한 상태</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>예방, 회피, 발견, 복구</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>교착상태 해결 방법 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSTF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 위치에서 탐색거리가 가장 짧은 트랙에 대한 요청을 먼저 서비스하는 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C-SCAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>항상 바깥쪽에서 안쪽으로 움직이며 가장 짧은 탐색 거리를 갖는 요청을 서비스 하는 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LOOK(엘리베이터 알고리즘)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCAN을 기초로 사용하는 기법으로 진행 방향으로 더 이상의 요청이 없으면 역방향으로 진행하는 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>현재 헤드의 위치에서 진행 방향이 결정되면 탐색 거리가 짧은 순서에 따라 그 방향의 모든 요청을 서비스하고 끝까지 이동한 후 역방향 요청을 서비스 하는 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>N-STEP SCAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCAN기법을 기초로 하며 어떤 방향의 진행이 시작될 당시에 대기중이던 요청들만 서비스하고 진행도중 도착한 요청들은 한꺼번에 모아 다음의 반대 진행때 서비스하는 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SLTF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>섹터 큐잉이라고 하며 회전지연시간 최적화를 위해 구현된 기법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>클라우드 컴퓨팅</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷을 통해 가상화된 컴푸터 시스템 리소스를 제공하고 정보를 클라우드에 연결된 다른 컴퓨터로 처리하는 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IaaS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서버 스토리지 같은 시스템 자원을 클라우드로 제공하는 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PaaS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인프라를 생성 관리 하는 복잡함 없이 애플리케이션을 개발 실행 관리할 수 있게하는 플랫폼을 제공하는 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SaaS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>소프트웨어 및 관련 데이터는 중앙에 호스팅되고 사용자는 웹 브라우저 등의 클라이언트를 통해 접속하여 소프트웨어를 서비스 형태로 이용하는 서비스</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>광대역 내트워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근거리 네트워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSI 7계층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>국제 표준화 기구인 ISO에서 개발한 컴퓨터 네트워크 프로토콜 디자인과 통신을 계층으로 나누어 설명한 개방형 시스템 상호 연결 모델</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사용자와 네트워크 간 응용서비스 연결(프로토콜 : HTTP, FTP 전송단위 데이터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>응용 계층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>표현 계층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 형식 설정, 부호교환, 암-복호화, 압축(프로토콜 : JPEG, MPEG 전송단위 데이터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>세션 계층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송수신 간의 논리적 연결, 연결접속, 동기제어 (프로토콜 : RPC, NetBIOS 전송단위 데이터)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전송 계층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송수신 프로세스 간 연결, 신뢰성있는 통신 보장, 데이터 분할 재조립, 흐름 제어, 오류 제어, 혼잡 제어(프로토콜 : TCP, UDP 전송단위 세그먼트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 계층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단말기 간 데이터 전송을 위한 최적화된 경로 제공(프로토콜 : IP, ICMP 전송단위 패킷)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터링크 계층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접 시스템 간 데이터 전송, 전송 오류 제어, 동기화, 오류 제어, 흐름제어, 회선 제어(프로토콜 : HDLC, PPP 전송단위 프레임)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리 계층</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0과 1의 비트 정보를 회선에 보내기 위한 전기전 신호 변환(프로토콜 : RS-232C 전송단위 비트)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>WLAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무선랜 통신망</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사업자가 사전에 계약을 체결한 송신자와 수신자끼리만 데이터를 교환하는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전용 회선 방식(Dedlicated Line)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회선 교환 방식(Circuit Switching)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리적 전용선을 활용하여 데이터 전달 경로가 정해진 후 동일 경로로만 전달되는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패킷 교환 방식(Packet Switching)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전체 메시지를 각 노드가 수용할 수 있는 크기(패킷)로 잘라서 보내는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSMA/CD</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유선 LAN의 반이중 방식에서 사용, 단말이 신호 전송 전에 현재 채널이 사용중인지 체크하여 사용하지 않을때 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CSMA/SA</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무선 LAN의 반이중 방식에서 사용, 매체가 비어있음을 확인한 뒤 충돌을 피하기 위해서 임의 시간을 기다린 후 데이터를 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허브, 리피터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1계층 장비 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>허브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 대의 컴퓨터를 연결하여 네트워크로 보내거나 하나의 네트워크로 수신된 정보를 여러 대의 컴퓨터로 송신하기 위한 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>리피터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>디지털 신호를 증폭시켜 주는 역할을 하여 신호가 약해지지 않고 컴퓨터로 수신되도록 하는 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브리지, L2 스위치, NIC, 스위칭 허브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2계층 장비 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>두 개의 근거리 통신망(LAN)을 서로 연결해 주는 통신망 연결 장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L2 스위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>출발지에서 들어온 프레임을 목적지 MAC주소 기반으로 빠르게 전송시키는 통신 장비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NIC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외부 네트워크와 접속하여 가장 빠른 속도로 데이터를 주고받을 수 있게 컴퓨터 내에 설치되는 장치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위칭 허브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스위치 기능을 가진 허브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>VLAN</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물리적 배치와 상관없이 논리적으로 LAN을 구성하여 Broadcast Domain을 구분할 수 있게 해주는 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>STP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2개 이상의 스위치가 여러 경로로 연결될 때 무한 루프 현상을 막기 위해서 우선순위에 따라 1개의 경로로만 통신하도록 하는 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3계층 장비 종류</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LAN과 LAN을 연결하거나 LAN과 WAN을 연결하기 위한 인터넷 네트워킹 장비, 패킷의 위치를 추출하여, 그 위치에 대한 최적의 경로를 지정 및 패킷을 다음 장치로 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>게이트웨이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토콜을 서로 다른 통신마에 접속할 수 있게 해주는 장치, LAN에서 다른 네트워크에 데이터를 보내거나 다른 네트워크로부터 데이터를 받아들이는 출입구 역할</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L3 스위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3계층에서 네트워크 단위들을 연결하는 통신 장비, IP 레이어에서 스위칭을 수행하여 외부로 전송</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 유무선 공유기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우터, 게이트웨이, L3스위치, 인터넷 유무선 공유기, 망 스위칭 허브</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>L4 스위치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>4계층 장비로 4계층에서 네트워크 단위들을 연결하는 통신 장비, TCP/UDP등 스위칭 수행, 포트번호를 분석하여 포워딩을 결정하고 QoS, GLB, SLB 기능 제공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>서로 다른 시스템이나 기기들 간의 데이터 교환을 원활히 하기 위한 표준화된 통신규약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>구문(Syntax), 의미(Semantic), 타이밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토콜의 3요소</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴퓨터나 원거리 통신 장비 사이에서 메시지를 주고받는 양식과 규칙의 체계</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>HDLC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>점대점 방식이나 다중방식의 통신에 사용되는 ISO에서 표준화한 동기식 비트 중심의 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PPP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>네트워크 분야에서 두 통신 노드간의 직접적인 연결을 위해 일반적으로 사용되는 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프레임 릴레이</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>프로토콜 처리를 간략화하여 단순히 데이터 프레임들의 중계기능과 다중화 기능만 수행함으로써 데이터 처리속도의 향상 및 전송지연감소 기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ATM</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정보전달의 기본단위를 53바이트 셀 단위로 전달하는 비동기실 시분할 다중화 방식의 패킷형 전송기술</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전진 오류 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>후진 오류 수정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 전송 과정에서 발생한 오류를 검출하여 검출된 오류를 재전송 요구 없이 스스로 수정하는 방식(해밍 코드 방식, 상승 코드 방식)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 전송 과정에서 오류가 발생하면 송신측에 재전송을 요구하는 방식(패리티 검사, CRC, 블록합 검사)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Stop and Wait</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 개의 프레임을 전송하고 수신 측으로부터 ACK 및 NAK 신호를 수신할 때까지 정보 전송을 중지하고 기다리는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Go-back-N ARQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 프레임을 연속적으로 전송하는 과정에서 NAK를 수신하게 되면 오류가 발생한 프레임 이후에 전송된 모든 데이터 프레임을 재전송하는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Selective Repeat ARQ</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연속적으로 데이터 프레임을 전송하고 에러가 발생한 데이터 프레임만 재전송하는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>송수긴 간의 패킷 단위로 데이터를 교환하는 네트워크에서 정보를 주고받는데 사용하는 통신 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ARP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP 네트워크상에서 IP주소를 MAC주소로 변경하는 플로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RARP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MAC주소는 알지만 IP주소는 모르는 경우 서버로부터 IP주소를 요청하기 위해 사용하는 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ICMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP의 동작과정에서 전송 오류가 발생하는 경우 오류 정보를 전송하는 목적으로 사용하는 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IGMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 그룹 관리 프로토콜은 호스트 컴퓨터와 인접 라우터가 멀티캐스트 그룹 멤버십을 구성하는 데 사용하는 통신 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>라우팅 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 전송을 위해 목적지까지 갈 수 있는 여러 경로 중 최적의 경로를 설정해주는 라우터 간의 상호 통신 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPv4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷에서 사용되는 패킷 교환 네트워크상에서 데이터를 교환하기 위한 32비트 주소체계를 갖는 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPv6</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPv4의 주소 고갈, 보안성, 이동성 지워 등의 문제점을 해결하기 위해 개발된 128비트 주서체계를 갖는 차세대 인터넷 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>듀얼 스택</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IP계층에 두가지(IPv4, IPv6) 의 프로토콜이 모두 탑재되어 있고 통신 상대방에 따라 스택을 선택하는 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>터널링</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>IPv6망에서 인전합 IPv4 망을 거쳐 다른 IPv6망으로 통신할 때 IPv4 망에 터널을 만들고 IPv4에서 사용하는 프로토콜로 캡슐화하여 전송하는 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 변환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주소 변환 기술은 IPv4 망과 IPv6망 사이에 주소 변환기를 사용하여 서로 다른 네트워크 상의 패킷을 변환시키는 방법</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티캐스트 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷에서 같은 내용의 데이터를 여러명의 특정한 그룹의 수신자들에게 동시에 전송할 수 있는 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유니캐스트 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고유 주소로 식별된 하나의 네트워크 목적지에 1:1로 트래픽 또는 메시지를 전송하는 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>브로드캐스트 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 송신자가 같은 서브 네트워크상의 모든 수신자에게 데이터를 전송하는 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니캐스트 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 호스트에서 그룹 내에 가장 가까운 곳에 있는 수신자에게 데이터를 전달하는 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터 전송을 위해 목적지가 갈 수 있는 여러 경로 중 최적의 경로를 설정해주는 라우터 간의 상호 통신 규약</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RIP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS(자치, 자율 시스템) 내에서 사용하는 거리벡터 알고리즘에 기초하여 개발된 내부 라우팅 프로토콜(밸만-포드 알고리즘 사용, 15홉으로 제한, UDP사용, 30초마다 정보공유)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OSPF</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>규모가 크고 복잡한 TCP/IP 네트워크에서 자신을 기준으로 링크 상태 알고리즘을 적용한 내부 라우팅 프로토콜(다익스트라 알고리즘, 라우팅 메트릭, AS 분할, 홉 무제한, 멀티캐스팅)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BGP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거리 벡터 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>AS상호 간에 경로 정보를 교환하기 위한 외부 라우팅 프로토콜(경로 벡터 알고리즘, TCP연결)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인접 라우터와 정보를 공유하여 목적지까지의 거리와 방향을 결정하는 라우팅 프로토콜 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크 상태 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>링크 상태 정보를 모든 라우터에 전달하여 최단 경로 트리를 구성하는 라우팅 프로토콜 알고리즘</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷 프로토콜 스위트의 핵심 프로토콜, 근거리 통신망이나 인트라넷, 인터넷 연결된 컴퓨터에서 실행되는 프로그램 간에 일련의 옥텟을 안정저긍로 교환할 수 있게 해주는 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>신뢰성 보장, 연결 지향적 특징, 흐름 제어, 혼잡 제어</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>순서화되지 않은 데이터그램 서비스를 제공하는 전송 계층의 통신 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비신뢰성, 실시간 응용, 멀티캐스팅, 단순 헤더</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>UDP 특징</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>RPC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>별도의 원격 제어를 위한 코딩없이 다른 주소 공간에서 함수나 프로시저를 실행할 수 있는 프로세스간 통신에 사용되는 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>NetBIOS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애플리케이션 프로그램에게 API를 제공하여 상호 통신할 수 있도록 해주는 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>JPEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이미지를 위해 만들어진 표준 구격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MPEG</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멀티미디어를 위해 만들어진 표준 규격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/IP 프로토콜을 가지고 서버와 클라이언트 사이의 파일을 전송하기 위한 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SMTP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이메일을 보내기 위해 이용되는 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/IP 연결을 통해 이메일을 가져오는데 사용하는 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>POP3, IMAP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telnet</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인터넷이나 로컬 영역에서 네트워크 연결에 사용되는 네트워크 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Telnet보다 강력한 보안의 원격 접속 프로토콜, 서로 연결된 컴퓨터간 원격 명령 실행이나 쉘 서비스 등을 수행</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SNMP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>TCP/IP의 네트워크 관리 프로토콜로, 네트워크 장치로부터 정보를 수집 및 관리</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>X.25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>통신을 원하는 두 단말장치가 패킷 교환망을 통해 패킷을 원활히 전달하기 위한 통신 프로토콜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>데이터그램 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패킷 교환 방식으로 연결 경로를 확립하지 않고 각각의 패킷을 순서 무관하게 독립적으로 전송 하는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>가상 회산 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패킷 교환 방식으로 패킷이 전송되기 전에 송 수신 스테이션 간의 논리적인 통신 경로를 미리 설정 하는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애드 혹 네트워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>노드들에 의해 자율적으로 구성하는 기반 구조가 없는 네트워크</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주파수 분할 다중화(FDM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>하나의 주파수 대역폭을 다수의 작은 대역폭으로 분할하여 전송하는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시간 분할 다중화(TDM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회선의 대역폭을 일정 시간으로 분할하여 전송하는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코드 분할 다중화(CDM)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>정해진 주파수 대역에 다수의 사용자가 서로 다른 코드를 사용함으로써 동일한 주파수로 동시에 다수가 접속해서 전송하는 방식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -3358,16 +4506,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80E5561-E577-48F6-838F-E54E73D6967B}">
-  <dimension ref="A1:B401"/>
+  <dimension ref="A1:B546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A374" workbookViewId="0">
-      <selection activeCell="A402" sqref="A402"/>
+    <sheetView tabSelected="1" topLeftCell="A513" zoomScale="90" workbookViewId="0">
+      <selection activeCell="B537" sqref="B537"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="40.796875" customWidth="1"/>
-    <col min="2" max="2" width="148.8984375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="52.3984375" customWidth="1"/>
+    <col min="2" max="2" width="141.296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.4">
@@ -6544,9 +7692,1166 @@
         <v>780</v>
       </c>
     </row>
-    <row r="401" spans="1:1" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A401" s="1" t="s">
         <v>162</v>
+      </c>
+    </row>
+    <row r="402" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A402" s="1" t="s">
+        <v>781</v>
+      </c>
+      <c r="B402" s="1" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="403" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A403" s="1" t="s">
+        <v>783</v>
+      </c>
+      <c r="B403" s="1" t="s">
+        <v>784</v>
+      </c>
+    </row>
+    <row r="404" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A404" s="1" t="s">
+        <v>785</v>
+      </c>
+      <c r="B404" s="1" t="s">
+        <v>786</v>
+      </c>
+    </row>
+    <row r="405" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A405" s="1" t="s">
+        <v>787</v>
+      </c>
+      <c r="B405" s="1" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="406" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A406" s="1" t="s">
+        <v>789</v>
+      </c>
+      <c r="B406" s="1" t="s">
+        <v>790</v>
+      </c>
+    </row>
+    <row r="407" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A407" s="1" t="s">
+        <v>791</v>
+      </c>
+      <c r="B407" s="1" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="408" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A408" s="1" t="s">
+        <v>793</v>
+      </c>
+      <c r="B408" s="1" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="409" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A409" s="1" t="s">
+        <v>795</v>
+      </c>
+      <c r="B409" s="1" t="s">
+        <v>796</v>
+      </c>
+    </row>
+    <row r="410" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A410" s="1" t="s">
+        <v>797</v>
+      </c>
+      <c r="B410" s="1" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="411" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A411" s="1" t="s">
+        <v>799</v>
+      </c>
+      <c r="B411" s="1" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="412" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A412" s="1" t="s">
+        <v>801</v>
+      </c>
+      <c r="B412" s="1" t="s">
+        <v>802</v>
+      </c>
+    </row>
+    <row r="413" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A413" s="1" t="s">
+        <v>803</v>
+      </c>
+      <c r="B413" s="1" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="414" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A414" s="1" t="s">
+        <v>805</v>
+      </c>
+      <c r="B414" s="1" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="415" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A415" s="1" t="s">
+        <v>807</v>
+      </c>
+      <c r="B415" s="1" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="416" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A416" s="1" t="s">
+        <v>809</v>
+      </c>
+      <c r="B416" s="1" t="s">
+        <v>810</v>
+      </c>
+    </row>
+    <row r="417" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A417" s="1" t="s">
+        <v>811</v>
+      </c>
+      <c r="B417" s="1" t="s">
+        <v>812</v>
+      </c>
+    </row>
+    <row r="418" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A418" s="1" t="s">
+        <v>813</v>
+      </c>
+      <c r="B418" s="1" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="419" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A419" s="1" t="s">
+        <v>815</v>
+      </c>
+      <c r="B419" s="1" t="s">
+        <v>816</v>
+      </c>
+    </row>
+    <row r="420" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A420" s="1" t="s">
+        <v>817</v>
+      </c>
+      <c r="B420" s="1" t="s">
+        <v>818</v>
+      </c>
+    </row>
+    <row r="421" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A421" s="1" t="s">
+        <v>819</v>
+      </c>
+      <c r="B421" s="1" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="422" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A422" s="1" t="s">
+        <v>821</v>
+      </c>
+      <c r="B422" s="1" t="s">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="423" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A423" s="1" t="s">
+        <v>823</v>
+      </c>
+      <c r="B423" s="1" t="s">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="424" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A424" s="1" t="s">
+        <v>825</v>
+      </c>
+      <c r="B424" s="1" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="425" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A425" s="1" t="s">
+        <v>827</v>
+      </c>
+      <c r="B425" s="1" t="s">
+        <v>828</v>
+      </c>
+    </row>
+    <row r="426" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A426" s="1" t="s">
+        <v>829</v>
+      </c>
+      <c r="B426" s="1" t="s">
+        <v>830</v>
+      </c>
+    </row>
+    <row r="427" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A427" s="1" t="s">
+        <v>831</v>
+      </c>
+      <c r="B427" s="1" t="s">
+        <v>832</v>
+      </c>
+    </row>
+    <row r="428" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A428" s="1" t="s">
+        <v>833</v>
+      </c>
+      <c r="B428" s="1" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="429" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A429" s="1" t="s">
+        <v>835</v>
+      </c>
+      <c r="B429" s="1" t="s">
+        <v>836</v>
+      </c>
+    </row>
+    <row r="430" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A430" s="1" t="s">
+        <v>837</v>
+      </c>
+      <c r="B430" s="1" t="s">
+        <v>838</v>
+      </c>
+    </row>
+    <row r="431" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A431" s="1" t="s">
+        <v>839</v>
+      </c>
+      <c r="B431" s="1" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="432" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A432" s="1" t="s">
+        <v>841</v>
+      </c>
+      <c r="B432" s="1" t="s">
+        <v>842</v>
+      </c>
+    </row>
+    <row r="433" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A433" s="1" t="s">
+        <v>843</v>
+      </c>
+      <c r="B433" s="1" t="s">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="434" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A434" s="1" t="s">
+        <v>845</v>
+      </c>
+      <c r="B434" s="1" t="s">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="435" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A435" s="1" t="s">
+        <v>847</v>
+      </c>
+      <c r="B435" s="1" t="s">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="436" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A436" s="1" t="s">
+        <v>849</v>
+      </c>
+      <c r="B436" s="1" t="s">
+        <v>850</v>
+      </c>
+    </row>
+    <row r="437" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A437" s="1" t="s">
+        <v>851</v>
+      </c>
+      <c r="B437" s="1" t="s">
+        <v>852</v>
+      </c>
+    </row>
+    <row r="438" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A438" s="1" t="s">
+        <v>853</v>
+      </c>
+      <c r="B438" s="1" t="s">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="439" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A439" s="1" t="s">
+        <v>854</v>
+      </c>
+      <c r="B439" s="1" t="s">
+        <v>856</v>
+      </c>
+    </row>
+    <row r="440" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A440" s="1" t="s">
+        <v>857</v>
+      </c>
+      <c r="B440" s="1" t="s">
+        <v>858</v>
+      </c>
+    </row>
+    <row r="441" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A441" s="1" t="s">
+        <v>859</v>
+      </c>
+      <c r="B441" s="1" t="s">
+        <v>860</v>
+      </c>
+    </row>
+    <row r="442" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A442" s="1" t="s">
+        <v>861</v>
+      </c>
+      <c r="B442" s="1" t="s">
+        <v>862</v>
+      </c>
+    </row>
+    <row r="443" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A443" s="1" t="s">
+        <v>863</v>
+      </c>
+      <c r="B443" s="1" t="s">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="444" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A444" s="1" t="s">
+        <v>865</v>
+      </c>
+      <c r="B444" s="1" t="s">
+        <v>866</v>
+      </c>
+    </row>
+    <row r="445" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A445" s="1" t="s">
+        <v>867</v>
+      </c>
+      <c r="B445" s="1" t="s">
+        <v>868</v>
+      </c>
+    </row>
+    <row r="446" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A446" s="1" t="s">
+        <v>869</v>
+      </c>
+      <c r="B446" s="1" t="s">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="447" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A447" s="1" t="s">
+        <v>871</v>
+      </c>
+      <c r="B447" s="1" t="s">
+        <v>872</v>
+      </c>
+    </row>
+    <row r="448" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A448" s="1" t="s">
+        <v>873</v>
+      </c>
+      <c r="B448" s="1" t="s">
+        <v>874</v>
+      </c>
+    </row>
+    <row r="449" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A449" s="1" t="s">
+        <v>875</v>
+      </c>
+      <c r="B449" s="1" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="450" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A450" s="1" t="s">
+        <v>877</v>
+      </c>
+      <c r="B450" s="1" t="s">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="451" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A451" s="1" t="s">
+        <v>879</v>
+      </c>
+      <c r="B451" s="1" t="s">
+        <v>880</v>
+      </c>
+    </row>
+    <row r="452" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A452" s="1" t="s">
+        <v>881</v>
+      </c>
+      <c r="B452" s="1" t="s">
+        <v>886</v>
+      </c>
+    </row>
+    <row r="453" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A453" s="1" t="s">
+        <v>882</v>
+      </c>
+      <c r="B453" s="1" t="s">
+        <v>883</v>
+      </c>
+    </row>
+    <row r="454" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A454" s="1" t="s">
+        <v>884</v>
+      </c>
+      <c r="B454" s="1" t="s">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="455" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A455" s="1" t="s">
+        <v>887</v>
+      </c>
+      <c r="B455" s="1" t="s">
+        <v>888</v>
+      </c>
+    </row>
+    <row r="456" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A456" s="1" t="s">
+        <v>889</v>
+      </c>
+      <c r="B456" s="1" t="s">
+        <v>890</v>
+      </c>
+    </row>
+    <row r="457" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A457" s="1" t="s">
+        <v>891</v>
+      </c>
+      <c r="B457" s="1" t="s">
+        <v>892</v>
+      </c>
+    </row>
+    <row r="458" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A458" s="1" t="s">
+        <v>893</v>
+      </c>
+      <c r="B458" s="1" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="459" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A459" s="1" t="s">
+        <v>895</v>
+      </c>
+      <c r="B459" s="1" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="460" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A460" s="1" t="s">
+        <v>897</v>
+      </c>
+      <c r="B460" s="1" t="s">
+        <v>898</v>
+      </c>
+    </row>
+    <row r="461" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A461" s="1" t="s">
+        <v>899</v>
+      </c>
+      <c r="B461" s="1" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="462" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A462" s="1" t="s">
+        <v>901</v>
+      </c>
+      <c r="B462" s="1" t="s">
+        <v>902</v>
+      </c>
+    </row>
+    <row r="463" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A463" s="1" t="s">
+        <v>903</v>
+      </c>
+      <c r="B463" s="1" t="s">
+        <v>904</v>
+      </c>
+    </row>
+    <row r="464" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A464" s="1" t="s">
+        <v>906</v>
+      </c>
+      <c r="B464" s="1" t="s">
+        <v>905</v>
+      </c>
+    </row>
+    <row r="465" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A465" s="1" t="s">
+        <v>907</v>
+      </c>
+      <c r="B465" s="1" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="466" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A466" s="1" t="s">
+        <v>909</v>
+      </c>
+      <c r="B466" s="1" t="s">
+        <v>910</v>
+      </c>
+    </row>
+    <row r="467" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A467" s="1" t="s">
+        <v>911</v>
+      </c>
+      <c r="B467" s="1" t="s">
+        <v>912</v>
+      </c>
+    </row>
+    <row r="468" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A468" s="1" t="s">
+        <v>913</v>
+      </c>
+      <c r="B468" s="1" t="s">
+        <v>914</v>
+      </c>
+    </row>
+    <row r="469" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A469" s="1" t="s">
+        <v>915</v>
+      </c>
+      <c r="B469" s="1" t="s">
+        <v>916</v>
+      </c>
+    </row>
+    <row r="470" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A470" s="1" t="s">
+        <v>917</v>
+      </c>
+      <c r="B470" s="1" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="471" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A471" s="1" t="s">
+        <v>919</v>
+      </c>
+      <c r="B471" s="1" t="s">
+        <v>920</v>
+      </c>
+    </row>
+    <row r="472" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A472" s="1" t="s">
+        <v>922</v>
+      </c>
+      <c r="B472" s="1" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="473" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A473" s="1" t="s">
+        <v>923</v>
+      </c>
+      <c r="B473" s="1" t="s">
+        <v>924</v>
+      </c>
+    </row>
+    <row r="474" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A474" s="1" t="s">
+        <v>925</v>
+      </c>
+      <c r="B474" s="1" t="s">
+        <v>926</v>
+      </c>
+    </row>
+    <row r="475" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A475" s="1" t="s">
+        <v>927</v>
+      </c>
+      <c r="B475" s="1" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="476" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A476" s="1" t="s">
+        <v>929</v>
+      </c>
+      <c r="B476" s="1" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="477" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A477" s="1" t="s">
+        <v>931</v>
+      </c>
+      <c r="B477" s="1" t="s">
+        <v>932</v>
+      </c>
+    </row>
+    <row r="478" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A478" s="1" t="s">
+        <v>933</v>
+      </c>
+      <c r="B478" s="1" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="479" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A479" s="1" t="s">
+        <v>935</v>
+      </c>
+      <c r="B479" s="1" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="480" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A480" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B480" s="1" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="481" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A481" s="1" t="s">
+        <v>937</v>
+      </c>
+      <c r="B481" s="1" t="s">
+        <v>939</v>
+      </c>
+    </row>
+    <row r="482" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A482" s="1" t="s">
+        <v>940</v>
+      </c>
+      <c r="B482" s="1" t="s">
+        <v>941</v>
+      </c>
+    </row>
+    <row r="483" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A483" s="1" t="s">
+        <v>942</v>
+      </c>
+      <c r="B483" s="1" t="s">
+        <v>943</v>
+      </c>
+    </row>
+    <row r="484" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A484" s="1" t="s">
+        <v>944</v>
+      </c>
+      <c r="B484" s="1" t="s">
+        <v>945</v>
+      </c>
+    </row>
+    <row r="485" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A485" s="1" t="s">
+        <v>946</v>
+      </c>
+      <c r="B485" s="1" t="s">
+        <v>947</v>
+      </c>
+    </row>
+    <row r="486" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A486" s="1" t="s">
+        <v>948</v>
+      </c>
+      <c r="B486" s="1" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="487" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A487" s="1" t="s">
+        <v>958</v>
+      </c>
+      <c r="B487" s="1" t="s">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="488" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A488" s="1" t="s">
+        <v>952</v>
+      </c>
+      <c r="B488" s="1" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="489" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A489" s="1" t="s">
+        <v>953</v>
+      </c>
+      <c r="B489" s="1" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="490" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A490" s="1" t="s">
+        <v>955</v>
+      </c>
+      <c r="B490" s="1" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="491" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A491" s="1" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="492" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A492" s="1" t="s">
+        <v>959</v>
+      </c>
+      <c r="B492" s="1" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="493" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A493" s="1" t="s">
+        <v>961</v>
+      </c>
+      <c r="B493" s="1" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="494" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A494" s="1" t="s">
+        <v>963</v>
+      </c>
+      <c r="B494" s="1" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="495" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A495" s="1" t="s">
+        <v>965</v>
+      </c>
+      <c r="B495" s="1" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="496" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A496" s="1" t="s">
+        <v>967</v>
+      </c>
+      <c r="B496" s="1" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="497" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A497" s="1" t="s">
+        <v>969</v>
+      </c>
+      <c r="B497" s="1" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="498" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A498" s="1" t="s">
+        <v>971</v>
+      </c>
+      <c r="B498" s="1" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="499" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A499" s="1" t="s">
+        <v>973</v>
+      </c>
+      <c r="B499" s="1" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="500" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A500" s="1" t="s">
+        <v>975</v>
+      </c>
+      <c r="B500" s="1" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="501" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A501" s="1" t="s">
+        <v>976</v>
+      </c>
+      <c r="B501" s="1" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="502" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A502" s="1" t="s">
+        <v>979</v>
+      </c>
+      <c r="B502" s="1" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="503" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A503" s="1" t="s">
+        <v>981</v>
+      </c>
+      <c r="B503" s="1" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="504" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A504" s="1" t="s">
+        <v>983</v>
+      </c>
+      <c r="B504" s="1" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="505" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A505" s="1" t="s">
+        <v>985</v>
+      </c>
+      <c r="B505" s="1" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="506" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A506" s="1" t="s">
+        <v>987</v>
+      </c>
+      <c r="B506" s="1" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="507" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A507" s="1" t="s">
+        <v>989</v>
+      </c>
+      <c r="B507" s="1" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="508" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A508" s="1" t="s">
+        <v>991</v>
+      </c>
+      <c r="B508" s="1" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="509" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A509" s="1" t="s">
+        <v>993</v>
+      </c>
+      <c r="B509" s="1" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="510" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A510" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B510" s="1" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="511" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A511" s="1" t="s">
+        <v>997</v>
+      </c>
+      <c r="B511" s="1" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="512" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A512" s="1" t="s">
+        <v>999</v>
+      </c>
+      <c r="B512" s="1" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="513" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A513" s="1" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B513" s="1" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="514" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A514" s="1" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B514" s="1" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="515" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A515" s="1" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B515" s="1" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="516" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A516" s="1" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B516" s="1" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="517" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A517" s="1" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B517" s="1" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="518" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A518" s="1" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B518" s="1" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="519" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A519" s="1" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B519" s="1" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="520" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A520" s="1" t="s">
+        <v>995</v>
+      </c>
+      <c r="B520" s="1" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="521" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A521" s="1" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B521" s="1" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="522" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A522" s="1" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B522" s="1" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="523" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A523" s="1" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B523" s="1" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="524" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A524" s="1" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B524" s="1" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="525" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A525" s="1" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B525" s="1" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="526" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A526" s="1" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B526" s="1" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="527" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A527" s="1" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B527" s="1" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="528" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A528" s="1" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B528" s="1" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="529" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A529" s="1" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B529" s="1" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="530" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A530" s="1" t="s">
+        <v>1034</v>
+      </c>
+      <c r="B530" s="1" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="531" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A531" s="1" t="s">
+        <v>1036</v>
+      </c>
+      <c r="B531" s="1" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="532" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A532" s="1" t="s">
+        <v>1038</v>
+      </c>
+      <c r="B532" s="1" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="533" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A533" s="1" t="s">
+        <v>1040</v>
+      </c>
+      <c r="B533" s="1" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="534" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A534" s="1" t="s">
+        <v>1042</v>
+      </c>
+      <c r="B534" s="1" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="535" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A535" s="1" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B535" s="1" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="536" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A536" s="1" t="s">
+        <v>1047</v>
+      </c>
+      <c r="B536" s="1" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="537" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A537" s="1" t="s">
+        <v>1048</v>
+      </c>
+      <c r="B537" s="1" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="538" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A538" s="1" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B538" s="1" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="539" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A539" s="1" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B539" s="1" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="540" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A540" s="1" t="s">
+        <v>1054</v>
+      </c>
+      <c r="B540" s="1" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="541" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A541" s="1" t="s">
+        <v>1056</v>
+      </c>
+      <c r="B541" s="1" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="542" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A542" s="1" t="s">
+        <v>1058</v>
+      </c>
+      <c r="B542" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="543" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A543" s="1" t="s">
+        <v>1060</v>
+      </c>
+      <c r="B543" s="1" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="544" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A544" s="1" t="s">
+        <v>1062</v>
+      </c>
+      <c r="B544" s="1" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="545" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A545" s="1" t="s">
+        <v>1064</v>
+      </c>
+      <c r="B545" s="1" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="546" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A546" s="1" t="s">
+        <v>1066</v>
+      </c>
+      <c r="B546" s="1" t="s">
+        <v>1067</v>
       </c>
     </row>
   </sheetData>

--- a/web/assets/assets/gisa.xlsx
+++ b/web/assets/assets/gisa.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sb-dev03\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76629D17-4858-479F-9115-04A61EF5DE9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A468008D-852A-489C-BD84-E3EE2BE36FC4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1649BD6D-D179-446E-B5BC-9F41EA25AB64}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{1649BD6D-D179-446E-B5BC-9F41EA25AB64}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -40,9 +40,6 @@
   </si>
   <si>
     <t>시스템의 요구분석부터 유지보수까지 체계화한 절차</t>
-  </si>
-  <si>
-    <t>시스템의 요구분석부터 유지보수까지 체계화한 절차</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -185,9 +182,6 @@
     <t xml:space="preserve">Builder pattern </t>
   </si>
   <si>
-    <t>객체를 생성하는 방법과 구현하는 방법을 분리</t>
-  </si>
-  <si>
     <t xml:space="preserve">Prototype pattern </t>
   </si>
   <si>
@@ -195,20 +189,12 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>복사 한 후 필요한 부분만 수정하여 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">abstract factory pattern </t>
   </si>
   <si>
     <t xml:space="preserve">singleton pattern </t>
   </si>
   <si>
-    <t>객체 한 개만 생성 &gt; 어디서든지 참조할수있음</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>문제에 대해 자주 쓰이는 설계 방법을 정리한 패턴</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -220,76 +206,27 @@
     <t xml:space="preserve">Decorator pattern </t>
   </si>
   <si>
-    <t xml:space="preserve">Façade pattern </t>
-  </si>
-  <si>
     <t xml:space="preserve">Flyweight pattern </t>
   </si>
   <si>
-    <t>본질적인 요소 클래스화, 클래스의 경량화를 목적</t>
-  </si>
-  <si>
     <t xml:space="preserve">Proxy pattern </t>
   </si>
   <si>
-    <t>객체를 실제 이용할때만 할당, 정보은닉 역할 수행</t>
-  </si>
-  <si>
     <t xml:space="preserve">Composite pattern </t>
   </si>
   <si>
-    <t>트리구조로 구성하여 부분-전체 계층 표현</t>
-  </si>
-  <si>
     <t xml:space="preserve">Adapter pattern </t>
   </si>
   <si>
-    <t>기존 생성된 클래스를 중간에서 맞춰주는 역할</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">Mediator pattern </t>
   </si>
   <si>
     <t xml:space="preserve">Interpreter pattern </t>
   </si>
   <si>
-    <t>여러 형태의 언어 구문 해석, 문법 자체를 캡슐화</t>
-  </si>
-  <si>
     <t xml:space="preserve">Iterator pattern </t>
   </si>
   <si>
-    <t xml:space="preserve">template method pattern </t>
-  </si>
-  <si>
-    <t xml:space="preserve">observer pattern </t>
-  </si>
-  <si>
-    <t>state patter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">visitor pattern </t>
-  </si>
-  <si>
-    <t xml:space="preserve">command pattern </t>
-  </si>
-  <si>
-    <t>명령이 들어오면 그에 맞는 서브클래스가 선택 되어 실행</t>
-  </si>
-  <si>
-    <t xml:space="preserve">strategy pattern </t>
-  </si>
-  <si>
-    <t>필요시 서로 교환해 사용할 수 있게하는 패턴</t>
-  </si>
-  <si>
-    <t xml:space="preserve">memento pattern </t>
-  </si>
-  <si>
-    <t xml:space="preserve">chain of responsibility </t>
-  </si>
-  <si>
     <t xml:space="preserve">UI 개념 </t>
   </si>
   <si>
@@ -376,10 +313,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>기능에 따라 나누어 개발 후 이를 통합하는 분할과 정복 접근 방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>객체 지향의 개념</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -588,62 +521,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상위에서 객체 생성하는 인터페이스 정의 하위에서 인스턴스 생성</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연관되거나 의존적인 객체들의 조합을 만드는 인터페이스를 제공하는 패턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>구현부에서 추상계층을 분리하여, 추상부분과 실제 구현 부분을 독립적으로 확장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>기존에 구현되어 있는 클래스에 필요한 기능을 추가해나가는 패턴, 객체간의 결합을 통해 기능을 동적으로 확장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>단순한 인터페이스 제공으로 결합도를 낮추고 접근성을 높이는 패턴</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>다음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>느슨한 결합의 특성을 해치지 않기 위해 중재자를 두고 중재자에게 모든걸 요구하여 통신의 빈도수 감소</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>컬렉션안에 있는 모든 항목에 반복자를 사용하여 접근 방법 제공</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>일부분을 서브 클래스로 캡슐화해 전체일을 수행하는 구조는 바꾸지않고 특정 단계의 수행내역을 변경</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>한 객체의 상태가 바뀌면 그 객체의 의존하는 다른 객체들에 연락이 가고 자동으로 갱신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>객체 상태를 캡슐화하여 클래스화함으로써 그것을 참조하게 하는 방식</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>처리 기능을 분리하여 별도의 클래스로 만들고 해당 클래스 메서드가 각 클래스를 돌아다니며 특정 작업 수행</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>객체의 정보를 저장할 팔요가 있을때, undo기능을 개발할 때 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>동적으로 연결되어 있는 경우에 따라 다르게 처리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>클래스 다이어그램</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -4114,6 +3995,142 @@
   </si>
   <si>
     <t>정해진 주파수 대역에 다수의 사용자가 서로 다른 코드를 사용함으로써 동일한 주파수로 동시에 다수가 접속해서 전송하는 방식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Facade pattern </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능에 따라 나누어 개발 후 이를 통합하는 분할과 정복 접근 방식의 방법론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컴포넌트를 조립해서 하나의 새로운 응용 프로그램을 작성하는 방법론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체를 생성하는 방법과 구현하는 방법을 분리함으로써 동일한 생성 절차에서 서로 다른 표현 결과를 만들 수 있는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상위에서 객체 생성하는 인터페이스 정의 하위에서 인스턴스 생성하도록 하는 방식으로 인터페이스와 실제 객체를 생성하는 클래스를 분리할 수 있는 특성을 가진 디자인패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>복사 한 후 필요한 부분만 수정하여 사용하는 패턴으로 객체를 생성할 때 갖추어야 할 기본 형태가 있을 때 사용되는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연관되거나 의존적인 객체들의 조합을 만드는 인터페이스를 제공하는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체 한 개만 생성하며 생성된 객체를 어드서든지 참조할 수 있도록 하는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기능의 클래스 계층과 구현의 클래스 계층을 연결하고, 구현부에서 추상계층을 분리하여, 추상부분과 실제 구현 부분을 독립적으로 확장할 수 있는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존에 구현되어 있는 클래스에 필요한 기능을 추가해나가는 패턴, 객체간의 결합을 통해 기능을 동적으로 확장이 필요할 때 상속의 대안으로 사용하는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>단순한 인터페이스 제공으로 결합도를 낮추고 접근성을 높이고 시스템 구조에 대한 파악을 쉽게 하는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>본질적인 요소 클래스화 하며 공유함으로써 메모리를 절약하고 클래스 경량화를 목적으로 하는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>미리 할당하지 않아도 상관없는 것들을 실제 이용할 때만 할당하게 하여 메모리 용량을 아끼고 정보은닉 역할도 수행하는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>느슨한 결합의 특성을 해치지 않기 위해 중재자를 두고 중재자에게 모든걸 요구하여 통신의 빈도수 감소시켜 객체지향의 목표들 달성하게 해주는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>트리구조로 구성하여 부분-전체 계층 표현하고, 사용자가 단일 객체와 복합 객체 모두 동일하게 다루도록 하는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>기존 생성된 클래스를 중간에서 맞춰주는 역할을 하는 인터페이스를 만드는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>여러 형태의 언어 구문 해석, 문법 자체를 캡슐화하여 사용하는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>컬렉션 구현 방법을 노출시키지 않으면서도 컬렉션안에 있는 모든 항목에 반복자를 사용하여 접근 방법 제공하는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>일부분을 서브 클래스로 캡슐화해 전체일을 수행하는 구조는 바꾸지않고 특정 단계의 수행내역을 변경하는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한 객체의 상태가 바뀌면 그 객체의 의존하는 다른 객체들에 연락이 가고 자동으로 갱신하는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체 상태를 캡슐화하여 클래스화함으로써 그것을 참조하게 하는 방식의 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>처리 기능을 분리하여 별도의 클래스로 만들고 해당 클래스 메서드가 각 클래스를 돌아다니며 특정 작업 수행하는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>추상클래스에 메서드를 만들어 각 명령이 들어오면 그에 맞는 서브 클래스가 선택되어 실행되는 특징을 갖는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>같은 알고리즘을 각각 하나의 클래스로 캡슐화 한 다음 필요시 서로 교환해 사용할 수 있게하는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>객체의 정보를 저장할 팔요가 있을때, undo기능을 개발할 때 사용하는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>동적으로 연결되어 있는 경우에 따라 다르게 처리할수 있도록 하는 디자인 패턴</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Chain of responsibility </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Memento pattern </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Strategy pattern </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Command pattern </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Visitor pattern </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>State pattern</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Observer pattern </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">Template method pattern </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -4508,8 +4525,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A80E5561-E577-48F6-838F-E54E73D6967B}">
   <dimension ref="A1:B546"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A513" zoomScale="90" workbookViewId="0">
-      <selection activeCell="B537" sqref="B537"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScale="90" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
@@ -4523,4335 +4540,4335 @@
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A2" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" s="3" t="s">
         <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A6" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>101</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
-        <v>102</v>
+        <v>82</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>104</v>
+        <v>1035</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>13</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="3" t="s">
         <v>15</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>18</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>1</v>
+        <v>1036</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>21</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A16" s="1" t="s">
-        <v>105</v>
+        <v>84</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>106</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A17" s="1" t="s">
-        <v>107</v>
+        <v>86</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A18" s="1" t="s">
-        <v>109</v>
+        <v>88</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>110</v>
+        <v>89</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A19" s="1" t="s">
-        <v>111</v>
+        <v>90</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>112</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A20" s="1" t="s">
-        <v>113</v>
+        <v>92</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>114</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
-        <v>115</v>
+        <v>94</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>116</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A22" s="1" t="s">
-        <v>117</v>
+        <v>96</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>118</v>
+        <v>97</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A23" s="1" t="s">
-        <v>122</v>
+        <v>101</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>119</v>
+        <v>98</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A24" s="1" t="s">
-        <v>123</v>
+        <v>102</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>120</v>
+        <v>99</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>121</v>
+        <v>100</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A26" s="1" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A28" s="1" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A29" s="1" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A31" s="1" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A32" s="1" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A33" s="1" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="35" spans="1:2" ht="32.4" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A35" s="1" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A36" s="1" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A37" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B37" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B37" s="2" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A38" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="B38" s="4" t="s">
         <v>30</v>
-      </c>
-      <c r="B38" s="4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A39" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A41" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A42" s="1" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A43" s="1" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>150</v>
+        <v>129</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A44" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>151</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A45" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>152</v>
+        <v>131</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>153</v>
+        <v>132</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A47" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>154</v>
+        <v>133</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A48" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>155</v>
+        <v>134</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A49" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>156</v>
+        <v>135</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A50" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A51" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>44</v>
+        <v>1037</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A52" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B52" s="4" t="s">
-        <v>47</v>
+        <v>1039</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A53" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B53" s="4" t="s">
-        <v>157</v>
+        <v>1038</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A54" s="2" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>158</v>
+        <v>1040</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A55" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>50</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A56" s="2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B56" s="4" t="s">
-        <v>159</v>
+        <v>1042</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A57" s="2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>160</v>
+        <v>1043</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A58" s="2" t="s">
-        <v>54</v>
+        <v>1034</v>
       </c>
       <c r="B58" s="2" t="s">
-        <v>161</v>
+        <v>1044</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A59" s="2" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="B59" s="4" t="s">
-        <v>56</v>
+        <v>1045</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A60" s="2" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="B60" s="2" t="s">
-        <v>58</v>
+        <v>1046</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A61" s="2" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="B61" s="2" t="s">
-        <v>60</v>
+        <v>1048</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A62" s="2" t="s">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>62</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A63" s="2" t="s">
-        <v>63</v>
+        <v>54</v>
       </c>
       <c r="B63" s="4" t="s">
-        <v>163</v>
+        <v>1047</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A64" s="2" t="s">
-        <v>64</v>
+        <v>55</v>
       </c>
       <c r="B64" s="4" t="s">
-        <v>65</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A65" s="2" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="B65" s="4" t="s">
-        <v>164</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A66" s="2" t="s">
-        <v>67</v>
+        <v>1067</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>165</v>
+        <v>1052</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A67" s="2" t="s">
-        <v>68</v>
+        <v>1066</v>
       </c>
       <c r="B67" s="4" t="s">
-        <v>166</v>
+        <v>1053</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A68" s="2" t="s">
-        <v>69</v>
+        <v>1065</v>
       </c>
       <c r="B68" s="2" t="s">
-        <v>167</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A69" s="2" t="s">
-        <v>70</v>
+        <v>1064</v>
       </c>
       <c r="B69" s="2" t="s">
-        <v>168</v>
+        <v>1055</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A70" s="2" t="s">
-        <v>71</v>
+        <v>1063</v>
       </c>
       <c r="B70" s="2" t="s">
-        <v>72</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A71" s="2" t="s">
-        <v>73</v>
+        <v>1062</v>
       </c>
       <c r="B71" s="4" t="s">
-        <v>74</v>
+        <v>1057</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A72" s="2" t="s">
-        <v>75</v>
+        <v>1061</v>
       </c>
       <c r="B72" s="2" t="s">
-        <v>169</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A73" s="2" t="s">
-        <v>76</v>
+        <v>1060</v>
       </c>
       <c r="B73" s="4" t="s">
-        <v>170</v>
+        <v>1059</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A74" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
       <c r="B74" s="1"/>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A75" s="1" t="s">
-        <v>77</v>
+        <v>57</v>
       </c>
       <c r="B75" s="3" t="s">
-        <v>78</v>
+        <v>58</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>59</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>80</v>
+        <v>60</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A77" s="1" t="s">
-        <v>81</v>
+        <v>61</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>82</v>
+        <v>62</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A78" s="1" t="s">
-        <v>83</v>
+        <v>63</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>84</v>
+        <v>64</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A79" s="1" t="s">
-        <v>85</v>
+        <v>65</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>86</v>
+        <v>66</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A80" s="2" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="B80" s="2" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A81" s="1" t="s">
-        <v>89</v>
+        <v>69</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>90</v>
+        <v>70</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A82" s="1" t="s">
-        <v>91</v>
+        <v>71</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>92</v>
+        <v>72</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A83" s="1" t="s">
-        <v>93</v>
+        <v>73</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>94</v>
+        <v>74</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A84" s="1" t="s">
-        <v>95</v>
+        <v>75</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A85" s="1" t="s">
-        <v>97</v>
+        <v>77</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>98</v>
+        <v>78</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A86" s="1" t="s">
-        <v>99</v>
+        <v>79</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>100</v>
+        <v>80</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A87" s="1" t="s">
-        <v>171</v>
+        <v>137</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>172</v>
+        <v>138</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A88" s="1" t="s">
-        <v>173</v>
+        <v>139</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>174</v>
+        <v>140</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A89" s="1" t="s">
-        <v>175</v>
+        <v>141</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>176</v>
+        <v>142</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A90" s="1" t="s">
-        <v>177</v>
+        <v>143</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>178</v>
+        <v>144</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A91" s="1" t="s">
-        <v>179</v>
+        <v>145</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>180</v>
+        <v>146</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A92" s="1" t="s">
-        <v>181</v>
+        <v>147</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>182</v>
+        <v>148</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A93" s="1" t="s">
-        <v>183</v>
+        <v>149</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>184</v>
+        <v>150</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A94" s="1" t="s">
-        <v>185</v>
+        <v>151</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>186</v>
+        <v>152</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A95" s="1" t="s">
-        <v>187</v>
+        <v>153</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A96" s="1" t="s">
-        <v>189</v>
+        <v>155</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>190</v>
+        <v>156</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A97" s="1" t="s">
-        <v>191</v>
+        <v>157</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>192</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A98" s="1" t="s">
-        <v>193</v>
+        <v>159</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>194</v>
+        <v>160</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A99" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A100" s="3" t="s">
-        <v>195</v>
+        <v>161</v>
       </c>
       <c r="B100" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A101" s="1" t="s">
-        <v>197</v>
+        <v>163</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>198</v>
+        <v>164</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A102" s="1" t="s">
-        <v>200</v>
+        <v>166</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>199</v>
+        <v>165</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A103" s="1" t="s">
-        <v>201</v>
+        <v>167</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>202</v>
+        <v>168</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A104" s="1" t="s">
-        <v>203</v>
+        <v>169</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>204</v>
+        <v>170</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A105" s="1" t="s">
-        <v>205</v>
+        <v>171</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>206</v>
+        <v>172</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A106" s="3" t="s">
-        <v>208</v>
+        <v>174</v>
       </c>
       <c r="B106" s="3" t="s">
-        <v>207</v>
+        <v>173</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A107" s="3" t="s">
-        <v>209</v>
+        <v>175</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>210</v>
+        <v>176</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A108" s="1" t="s">
-        <v>211</v>
+        <v>177</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>212</v>
+        <v>178</v>
       </c>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A109" s="1" t="s">
-        <v>213</v>
+        <v>179</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>214</v>
+        <v>180</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A110" s="2" t="s">
-        <v>215</v>
+        <v>181</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>216</v>
+        <v>182</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A111" s="2" t="s">
-        <v>217</v>
+        <v>183</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>218</v>
+        <v>184</v>
       </c>
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A112" s="2" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>220</v>
+        <v>186</v>
       </c>
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A113" s="1" t="s">
-        <v>221</v>
+        <v>187</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>222</v>
+        <v>188</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A114" s="1" t="s">
-        <v>224</v>
+        <v>190</v>
       </c>
       <c r="B114" s="3" t="s">
-        <v>223</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A115" s="1" t="s">
-        <v>227</v>
+        <v>193</v>
       </c>
       <c r="B115" s="3" t="s">
-        <v>228</v>
+        <v>194</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A116" s="1" t="s">
-        <v>225</v>
+        <v>191</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>226</v>
+        <v>192</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A117" s="1" t="s">
-        <v>229</v>
+        <v>195</v>
       </c>
       <c r="B117" t="s">
-        <v>230</v>
+        <v>196</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A118" s="1" t="s">
-        <v>231</v>
+        <v>197</v>
       </c>
       <c r="B118" t="s">
-        <v>232</v>
+        <v>198</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A119" s="1" t="s">
-        <v>233</v>
+        <v>199</v>
       </c>
       <c r="B119" t="s">
-        <v>234</v>
+        <v>200</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A120" s="1" t="s">
-        <v>235</v>
+        <v>201</v>
       </c>
       <c r="B120" t="s">
-        <v>236</v>
+        <v>202</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A121" s="1" t="s">
-        <v>237</v>
+        <v>203</v>
       </c>
       <c r="B121" t="s">
-        <v>238</v>
+        <v>204</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A122" s="1" t="s">
-        <v>239</v>
+        <v>205</v>
       </c>
       <c r="B122" t="s">
-        <v>240</v>
+        <v>206</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A123" s="1" t="s">
-        <v>241</v>
+        <v>207</v>
       </c>
       <c r="B123" t="s">
-        <v>242</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A124" s="1" t="s">
-        <v>243</v>
+        <v>209</v>
       </c>
       <c r="B124" t="s">
-        <v>244</v>
+        <v>210</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A125" s="1" t="s">
-        <v>245</v>
+        <v>211</v>
       </c>
       <c r="B125" t="s">
-        <v>246</v>
+        <v>212</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A126" s="1" t="s">
-        <v>247</v>
+        <v>213</v>
       </c>
       <c r="B126" t="s">
-        <v>248</v>
+        <v>214</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A127" s="1" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
       <c r="B127" t="s">
-        <v>249</v>
+        <v>215</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A128" s="1" t="s">
-        <v>251</v>
+        <v>217</v>
       </c>
       <c r="B128" t="s">
-        <v>252</v>
+        <v>218</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A129" s="1" t="s">
-        <v>253</v>
+        <v>219</v>
       </c>
       <c r="B129" t="s">
-        <v>254</v>
+        <v>220</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A130" s="1" t="s">
-        <v>255</v>
+        <v>221</v>
       </c>
       <c r="B130" t="s">
-        <v>256</v>
+        <v>222</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A131" s="1" t="s">
-        <v>257</v>
+        <v>223</v>
       </c>
       <c r="B131" t="s">
-        <v>261</v>
+        <v>227</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A132" s="1" t="s">
-        <v>258</v>
+        <v>224</v>
       </c>
       <c r="B132" t="s">
-        <v>262</v>
+        <v>228</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A133" s="1" t="s">
-        <v>259</v>
+        <v>225</v>
       </c>
       <c r="B133" t="s">
-        <v>263</v>
+        <v>229</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A134" s="1" t="s">
-        <v>260</v>
+        <v>226</v>
       </c>
       <c r="B134" t="s">
-        <v>264</v>
+        <v>230</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A135" s="1" t="s">
-        <v>265</v>
+        <v>231</v>
       </c>
       <c r="B135" t="s">
-        <v>266</v>
+        <v>232</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A136" s="1" t="s">
-        <v>267</v>
+        <v>233</v>
       </c>
       <c r="B136" t="s">
-        <v>268</v>
+        <v>234</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A137" s="1" t="s">
-        <v>271</v>
+        <v>237</v>
       </c>
       <c r="B137" t="s">
-        <v>269</v>
+        <v>235</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A138" s="1" t="s">
-        <v>270</v>
+        <v>236</v>
       </c>
       <c r="B138" t="s">
-        <v>272</v>
+        <v>238</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A139" s="1" t="s">
-        <v>273</v>
+        <v>239</v>
       </c>
       <c r="B139" t="s">
-        <v>274</v>
+        <v>240</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A140" s="1" t="s">
-        <v>275</v>
+        <v>241</v>
       </c>
       <c r="B140" t="s">
-        <v>276</v>
+        <v>242</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A141" s="1" t="s">
-        <v>277</v>
+        <v>243</v>
       </c>
       <c r="B141" t="s">
-        <v>278</v>
+        <v>244</v>
       </c>
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A142" s="1" t="s">
-        <v>279</v>
+        <v>245</v>
       </c>
       <c r="B142" t="s">
-        <v>280</v>
+        <v>246</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A143" s="1" t="s">
-        <v>281</v>
+        <v>247</v>
       </c>
       <c r="B143" t="s">
-        <v>282</v>
+        <v>248</v>
       </c>
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A144" s="1" t="s">
-        <v>283</v>
+        <v>249</v>
       </c>
       <c r="B144" t="s">
-        <v>284</v>
+        <v>250</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A145" t="s">
-        <v>285</v>
+        <v>251</v>
       </c>
       <c r="B145" t="s">
-        <v>286</v>
+        <v>252</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A146" s="1" t="s">
-        <v>287</v>
+        <v>253</v>
       </c>
       <c r="B146" t="s">
-        <v>288</v>
+        <v>254</v>
       </c>
     </row>
     <row r="147" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A147" s="1" t="s">
-        <v>289</v>
+        <v>255</v>
       </c>
       <c r="B147" t="s">
-        <v>290</v>
+        <v>256</v>
       </c>
     </row>
     <row r="148" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A148" s="1" t="s">
-        <v>291</v>
+        <v>257</v>
       </c>
       <c r="B148" t="s">
-        <v>292</v>
+        <v>258</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A149" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="150" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A150" s="1" t="s">
-        <v>293</v>
+        <v>259</v>
       </c>
       <c r="B150" t="s">
-        <v>294</v>
+        <v>260</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A151" s="1" t="s">
-        <v>295</v>
+        <v>261</v>
       </c>
       <c r="B151" t="s">
-        <v>296</v>
+        <v>262</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A152" s="1" t="s">
-        <v>297</v>
+        <v>263</v>
       </c>
       <c r="B152" t="s">
-        <v>298</v>
+        <v>264</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A153" s="1" t="s">
-        <v>299</v>
+        <v>265</v>
       </c>
       <c r="B153" t="s">
-        <v>300</v>
+        <v>266</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A154" s="1" t="s">
-        <v>301</v>
+        <v>267</v>
       </c>
       <c r="B154" t="s">
-        <v>302</v>
+        <v>268</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A155" s="1" t="s">
-        <v>303</v>
+        <v>269</v>
       </c>
       <c r="B155" t="s">
-        <v>304</v>
+        <v>270</v>
       </c>
     </row>
     <row r="156" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A156" s="1" t="s">
-        <v>305</v>
+        <v>271</v>
       </c>
       <c r="B156" t="s">
-        <v>306</v>
+        <v>272</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A157" s="1" t="s">
-        <v>307</v>
+        <v>273</v>
       </c>
       <c r="B157" t="s">
-        <v>308</v>
+        <v>274</v>
       </c>
     </row>
     <row r="158" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A158" s="1" t="s">
-        <v>309</v>
+        <v>275</v>
       </c>
       <c r="B158" t="s">
-        <v>310</v>
+        <v>276</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A159" s="1" t="s">
-        <v>311</v>
+        <v>277</v>
       </c>
       <c r="B159" t="s">
-        <v>312</v>
+        <v>278</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A160" s="1" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
       <c r="B160" t="s">
-        <v>314</v>
+        <v>280</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A161" s="1" t="s">
-        <v>315</v>
+        <v>281</v>
       </c>
       <c r="B161" t="s">
-        <v>316</v>
+        <v>282</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A162" s="1" t="s">
-        <v>317</v>
+        <v>283</v>
       </c>
       <c r="B162" t="s">
-        <v>318</v>
+        <v>284</v>
       </c>
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A163" s="1" t="s">
-        <v>319</v>
+        <v>285</v>
       </c>
       <c r="B163" t="s">
-        <v>320</v>
+        <v>286</v>
       </c>
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A164" s="1" t="s">
-        <v>321</v>
+        <v>287</v>
       </c>
       <c r="B164" t="s">
-        <v>322</v>
+        <v>288</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A165" s="1" t="s">
-        <v>323</v>
+        <v>289</v>
       </c>
       <c r="B165" t="s">
-        <v>324</v>
+        <v>290</v>
       </c>
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A166" s="1" t="s">
-        <v>325</v>
+        <v>291</v>
       </c>
       <c r="B166" t="s">
-        <v>326</v>
+        <v>292</v>
       </c>
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A167" s="1" t="s">
-        <v>327</v>
+        <v>293</v>
       </c>
       <c r="B167" t="s">
-        <v>328</v>
+        <v>294</v>
       </c>
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A168" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A169" s="1" t="s">
-        <v>329</v>
+        <v>295</v>
       </c>
       <c r="B169" t="s">
-        <v>330</v>
+        <v>296</v>
       </c>
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A170" s="1" t="s">
-        <v>331</v>
+        <v>297</v>
       </c>
       <c r="B170" t="s">
-        <v>332</v>
+        <v>298</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A171" s="1" t="s">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="B171" t="s">
-        <v>334</v>
+        <v>300</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A172" s="1" t="s">
-        <v>335</v>
+        <v>301</v>
       </c>
       <c r="B172" t="s">
-        <v>336</v>
+        <v>302</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A173" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A174" s="1" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
       <c r="B174" s="1" t="s">
-        <v>337</v>
+        <v>303</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A175" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A176" s="1" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>338</v>
+        <v>304</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A177" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A178" s="1" t="s">
-        <v>339</v>
+        <v>305</v>
       </c>
       <c r="B178" t="s">
-        <v>340</v>
+        <v>306</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A179" s="1" t="s">
-        <v>341</v>
+        <v>307</v>
       </c>
       <c r="B179" t="s">
-        <v>342</v>
+        <v>308</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A180" s="1" t="s">
-        <v>343</v>
+        <v>309</v>
       </c>
       <c r="B180" t="s">
-        <v>344</v>
+        <v>310</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A181" s="1" t="s">
-        <v>345</v>
+        <v>311</v>
       </c>
       <c r="B181" t="s">
-        <v>346</v>
+        <v>312</v>
       </c>
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A182" s="1" t="s">
-        <v>347</v>
+        <v>313</v>
       </c>
       <c r="B182" t="s">
-        <v>348</v>
+        <v>314</v>
       </c>
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A183" s="1" t="s">
-        <v>349</v>
+        <v>315</v>
       </c>
       <c r="B183" t="s">
-        <v>356</v>
+        <v>322</v>
       </c>
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A184" s="1" t="s">
-        <v>350</v>
+        <v>316</v>
       </c>
       <c r="B184" t="s">
-        <v>355</v>
+        <v>321</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A185" s="1" t="s">
-        <v>351</v>
+        <v>317</v>
       </c>
       <c r="B185" t="s">
-        <v>354</v>
+        <v>320</v>
       </c>
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A186" s="1" t="s">
-        <v>352</v>
+        <v>318</v>
       </c>
       <c r="B186" t="s">
-        <v>353</v>
+        <v>319</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A187" s="1" t="s">
-        <v>357</v>
+        <v>323</v>
       </c>
       <c r="B187" t="s">
-        <v>358</v>
+        <v>324</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A188" s="1" t="s">
-        <v>369</v>
+        <v>335</v>
       </c>
       <c r="B188" t="s">
-        <v>359</v>
+        <v>325</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A189" s="1" t="s">
-        <v>370</v>
+        <v>336</v>
       </c>
       <c r="B189" t="s">
-        <v>360</v>
+        <v>326</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A190" s="1" t="s">
-        <v>371</v>
+        <v>337</v>
       </c>
       <c r="B190" t="s">
-        <v>361</v>
+        <v>327</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A191" s="1" t="s">
-        <v>372</v>
+        <v>338</v>
       </c>
       <c r="B191" t="s">
-        <v>362</v>
+        <v>328</v>
       </c>
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A192" s="1" t="s">
-        <v>373</v>
+        <v>339</v>
       </c>
       <c r="B192" t="s">
-        <v>363</v>
+        <v>329</v>
       </c>
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A193" s="1" t="s">
-        <v>374</v>
+        <v>340</v>
       </c>
       <c r="B193" t="s">
-        <v>364</v>
+        <v>330</v>
       </c>
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A194" s="1" t="s">
-        <v>375</v>
+        <v>341</v>
       </c>
       <c r="B194" t="s">
-        <v>365</v>
+        <v>331</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A195" s="1" t="s">
-        <v>366</v>
+        <v>332</v>
       </c>
       <c r="B195" t="s">
-        <v>367</v>
+        <v>333</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A196" s="1" t="s">
-        <v>376</v>
+        <v>342</v>
       </c>
       <c r="B196" t="s">
-        <v>368</v>
+        <v>334</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A197" s="1" t="s">
-        <v>377</v>
+        <v>343</v>
       </c>
       <c r="B197" t="s">
-        <v>378</v>
+        <v>344</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A198" s="1" t="s">
-        <v>379</v>
+        <v>345</v>
       </c>
       <c r="B198" t="s">
-        <v>380</v>
+        <v>346</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A199" s="1" t="s">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="B199" t="s">
-        <v>382</v>
+        <v>348</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A200" s="1" t="s">
-        <v>383</v>
+        <v>349</v>
       </c>
       <c r="B200" t="s">
-        <v>384</v>
+        <v>350</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A201" s="1" t="s">
-        <v>385</v>
+        <v>351</v>
       </c>
       <c r="B201" t="s">
-        <v>386</v>
+        <v>352</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A202" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A203" s="1" t="s">
-        <v>387</v>
+        <v>353</v>
       </c>
       <c r="B203" t="s">
-        <v>388</v>
+        <v>354</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A204" s="1" t="s">
-        <v>389</v>
+        <v>355</v>
       </c>
       <c r="B204" s="1" t="s">
-        <v>390</v>
+        <v>356</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A205" s="1" t="s">
-        <v>391</v>
+        <v>357</v>
       </c>
       <c r="B205" s="1" t="s">
-        <v>392</v>
+        <v>358</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A206" s="1" t="s">
-        <v>393</v>
+        <v>359</v>
       </c>
       <c r="B206" s="3" t="s">
-        <v>394</v>
+        <v>360</v>
       </c>
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A207" s="1" t="s">
-        <v>395</v>
+        <v>361</v>
       </c>
       <c r="B207" s="3" t="s">
-        <v>396</v>
+        <v>362</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A208" s="1" t="s">
-        <v>397</v>
+        <v>363</v>
       </c>
       <c r="B208" s="1" t="s">
-        <v>398</v>
+        <v>364</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A209" s="1" t="s">
-        <v>399</v>
+        <v>365</v>
       </c>
       <c r="B209" s="1" t="s">
-        <v>400</v>
+        <v>366</v>
       </c>
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A210" s="1" t="s">
-        <v>401</v>
+        <v>367</v>
       </c>
       <c r="B210" s="1" t="s">
-        <v>402</v>
+        <v>368</v>
       </c>
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A211" s="1" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="B211" s="1" t="s">
-        <v>404</v>
+        <v>370</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A212" s="1" t="s">
-        <v>405</v>
+        <v>371</v>
       </c>
       <c r="B212" s="3" t="s">
-        <v>406</v>
+        <v>372</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A213" s="1" t="s">
-        <v>407</v>
+        <v>373</v>
       </c>
       <c r="B213" s="1" t="s">
-        <v>410</v>
+        <v>376</v>
       </c>
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A214" s="1" t="s">
-        <v>408</v>
+        <v>374</v>
       </c>
       <c r="B214" s="1" t="s">
-        <v>409</v>
+        <v>375</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A215" s="1" t="s">
-        <v>411</v>
+        <v>377</v>
       </c>
       <c r="B215" s="1" t="s">
-        <v>412</v>
+        <v>378</v>
       </c>
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A216" s="1" t="s">
-        <v>413</v>
+        <v>379</v>
       </c>
       <c r="B216" s="1" t="s">
-        <v>414</v>
+        <v>380</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A217" s="1" t="s">
-        <v>415</v>
+        <v>381</v>
       </c>
       <c r="B217" s="1" t="s">
-        <v>416</v>
+        <v>382</v>
       </c>
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A218" s="1" t="s">
-        <v>417</v>
+        <v>383</v>
       </c>
       <c r="B218" s="1" t="s">
-        <v>418</v>
+        <v>384</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A219" s="1" t="s">
-        <v>419</v>
+        <v>385</v>
       </c>
       <c r="B219" s="1" t="s">
-        <v>420</v>
+        <v>386</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A220" s="1" t="s">
-        <v>421</v>
+        <v>387</v>
       </c>
       <c r="B220" s="1" t="s">
-        <v>422</v>
+        <v>388</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A221" s="1" t="s">
-        <v>423</v>
+        <v>389</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>424</v>
+        <v>390</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A222" s="1" t="s">
-        <v>425</v>
+        <v>391</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>426</v>
+        <v>392</v>
       </c>
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A223" s="1" t="s">
-        <v>427</v>
+        <v>393</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>428</v>
+        <v>394</v>
       </c>
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A224" s="1" t="s">
-        <v>429</v>
+        <v>395</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>430</v>
+        <v>396</v>
       </c>
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A225" s="1" t="s">
-        <v>431</v>
+        <v>397</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>585</v>
+        <v>551</v>
       </c>
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A226" s="1" t="s">
-        <v>432</v>
+        <v>398</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>583</v>
+        <v>549</v>
       </c>
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A227" s="1" t="s">
-        <v>433</v>
+        <v>399</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>434</v>
+        <v>400</v>
       </c>
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A228" s="1" t="s">
-        <v>435</v>
+        <v>401</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>587</v>
+        <v>553</v>
       </c>
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A229" s="1" t="s">
-        <v>436</v>
+        <v>402</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>437</v>
+        <v>403</v>
       </c>
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A230" s="1" t="s">
-        <v>438</v>
+        <v>404</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>439</v>
+        <v>405</v>
       </c>
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A231" s="1" t="s">
-        <v>440</v>
+        <v>406</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>441</v>
+        <v>407</v>
       </c>
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A232" s="1" t="s">
-        <v>442</v>
+        <v>408</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>443</v>
+        <v>409</v>
       </c>
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A233" s="1" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A234" s="3" t="s">
-        <v>446</v>
+        <v>412</v>
       </c>
       <c r="B234" s="3" t="s">
-        <v>447</v>
+        <v>413</v>
       </c>
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A235" s="1" t="s">
-        <v>586</v>
+        <v>552</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>448</v>
+        <v>414</v>
       </c>
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A236" s="1" t="s">
-        <v>449</v>
+        <v>415</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>450</v>
+        <v>416</v>
       </c>
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A237" s="1" t="s">
-        <v>451</v>
+        <v>417</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>452</v>
+        <v>418</v>
       </c>
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A238" s="1" t="s">
-        <v>453</v>
+        <v>419</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>584</v>
+        <v>550</v>
       </c>
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A239" s="1" t="s">
-        <v>454</v>
+        <v>420</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>455</v>
+        <v>421</v>
       </c>
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A240" s="1" t="s">
-        <v>456</v>
+        <v>422</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>457</v>
+        <v>423</v>
       </c>
     </row>
     <row r="241" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A241" s="1" t="s">
-        <v>458</v>
+        <v>424</v>
       </c>
       <c r="B241" s="1" t="s">
-        <v>459</v>
+        <v>425</v>
       </c>
     </row>
     <row r="242" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A242" s="1" t="s">
-        <v>460</v>
+        <v>426</v>
       </c>
       <c r="B242" s="1" t="s">
-        <v>461</v>
+        <v>427</v>
       </c>
     </row>
     <row r="243" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A243" s="1" t="s">
-        <v>462</v>
+        <v>428</v>
       </c>
       <c r="B243" s="1" t="s">
-        <v>463</v>
+        <v>429</v>
       </c>
     </row>
     <row r="244" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A244" s="1" t="s">
-        <v>464</v>
+        <v>430</v>
       </c>
       <c r="B244" s="1" t="s">
-        <v>465</v>
+        <v>431</v>
       </c>
     </row>
     <row r="245" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A245" s="1" t="s">
-        <v>466</v>
+        <v>432</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>467</v>
+        <v>433</v>
       </c>
     </row>
     <row r="246" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A246" s="1" t="s">
-        <v>468</v>
+        <v>434</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>469</v>
+        <v>435</v>
       </c>
     </row>
     <row r="247" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A247" s="1" t="s">
-        <v>470</v>
+        <v>436</v>
       </c>
       <c r="B247" s="3" t="s">
-        <v>471</v>
+        <v>437</v>
       </c>
     </row>
     <row r="248" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A248" s="1" t="s">
-        <v>472</v>
+        <v>438</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>473</v>
+        <v>439</v>
       </c>
     </row>
     <row r="249" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A249" s="1" t="s">
-        <v>474</v>
+        <v>440</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>475</v>
+        <v>441</v>
       </c>
     </row>
     <row r="250" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A250" s="1" t="s">
-        <v>476</v>
+        <v>442</v>
       </c>
       <c r="B250" s="3" t="s">
-        <v>477</v>
+        <v>443</v>
       </c>
     </row>
     <row r="251" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A251" s="1" t="s">
-        <v>478</v>
+        <v>444</v>
       </c>
       <c r="B251" s="3" t="s">
-        <v>479</v>
+        <v>445</v>
       </c>
     </row>
     <row r="252" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A252" s="1" t="s">
-        <v>480</v>
+        <v>446</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>481</v>
+        <v>447</v>
       </c>
     </row>
     <row r="253" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A253" s="1" t="s">
-        <v>482</v>
+        <v>448</v>
       </c>
       <c r="B253" s="1" t="s">
-        <v>483</v>
+        <v>449</v>
       </c>
     </row>
     <row r="254" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A254" s="1" t="s">
-        <v>484</v>
+        <v>450</v>
       </c>
       <c r="B254" s="1" t="s">
-        <v>485</v>
+        <v>451</v>
       </c>
     </row>
     <row r="255" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A255" s="1" t="s">
-        <v>486</v>
+        <v>452</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>487</v>
+        <v>453</v>
       </c>
     </row>
     <row r="256" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A256" s="1" t="s">
-        <v>488</v>
+        <v>454</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>489</v>
+        <v>455</v>
       </c>
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A257" s="1" t="s">
-        <v>490</v>
+        <v>456</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>491</v>
+        <v>457</v>
       </c>
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A258" s="1" t="s">
-        <v>492</v>
+        <v>458</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>497</v>
+        <v>463</v>
       </c>
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A259" s="1" t="s">
-        <v>493</v>
+        <v>459</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>494</v>
+        <v>460</v>
       </c>
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A260" s="1" t="s">
-        <v>495</v>
+        <v>461</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>496</v>
+        <v>462</v>
       </c>
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A261" s="1" t="s">
-        <v>498</v>
+        <v>464</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>499</v>
+        <v>465</v>
       </c>
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A262" s="3" t="s">
-        <v>500</v>
+        <v>466</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>501</v>
+        <v>467</v>
       </c>
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A263" s="1" t="s">
-        <v>502</v>
+        <v>468</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>503</v>
+        <v>469</v>
       </c>
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A264" s="1" t="s">
-        <v>504</v>
+        <v>470</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>507</v>
+        <v>473</v>
       </c>
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A265" s="1" t="s">
-        <v>505</v>
+        <v>471</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>506</v>
+        <v>472</v>
       </c>
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A266" s="1" t="s">
-        <v>508</v>
+        <v>474</v>
       </c>
       <c r="B266" s="1" t="s">
-        <v>510</v>
+        <v>476</v>
       </c>
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A267" s="1" t="s">
-        <v>509</v>
+        <v>475</v>
       </c>
       <c r="B267" s="1" t="s">
-        <v>511</v>
+        <v>477</v>
       </c>
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A268" s="1" t="s">
-        <v>512</v>
+        <v>478</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>513</v>
+        <v>479</v>
       </c>
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A269" s="1" t="s">
-        <v>514</v>
+        <v>480</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>515</v>
+        <v>481</v>
       </c>
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A270" s="1" t="s">
-        <v>516</v>
+        <v>482</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>517</v>
+        <v>483</v>
       </c>
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A271" s="1" t="s">
-        <v>518</v>
+        <v>484</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>519</v>
+        <v>485</v>
       </c>
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A272" s="1" t="s">
-        <v>520</v>
+        <v>486</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>521</v>
+        <v>487</v>
       </c>
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A273" s="1" t="s">
-        <v>522</v>
+        <v>488</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>523</v>
+        <v>489</v>
       </c>
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A274" s="1" t="s">
-        <v>524</v>
+        <v>490</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>525</v>
+        <v>491</v>
       </c>
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A275" s="1" t="s">
-        <v>526</v>
+        <v>492</v>
       </c>
       <c r="B275" s="1" t="s">
-        <v>527</v>
+        <v>493</v>
       </c>
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A276" s="1" t="s">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="B276" s="1" t="s">
-        <v>529</v>
+        <v>495</v>
       </c>
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A277" s="1" t="s">
-        <v>530</v>
+        <v>496</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>531</v>
+        <v>497</v>
       </c>
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A278" s="1" t="s">
-        <v>532</v>
+        <v>498</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>533</v>
+        <v>499</v>
       </c>
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A279" s="1" t="s">
-        <v>534</v>
+        <v>500</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>535</v>
+        <v>501</v>
       </c>
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A280" s="1" t="s">
-        <v>536</v>
+        <v>502</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>537</v>
+        <v>503</v>
       </c>
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A281" s="1" t="s">
-        <v>538</v>
+        <v>504</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>539</v>
+        <v>505</v>
       </c>
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A282" s="1" t="s">
-        <v>540</v>
+        <v>506</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>541</v>
+        <v>507</v>
       </c>
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A283" s="1" t="s">
-        <v>542</v>
+        <v>508</v>
       </c>
       <c r="B283" s="1" t="s">
-        <v>543</v>
+        <v>509</v>
       </c>
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A284" s="1" t="s">
-        <v>544</v>
+        <v>510</v>
       </c>
       <c r="B284" s="1" t="s">
-        <v>545</v>
+        <v>511</v>
       </c>
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A285" s="1" t="s">
-        <v>546</v>
+        <v>512</v>
       </c>
       <c r="B285" s="1" t="s">
-        <v>547</v>
+        <v>513</v>
       </c>
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A286" s="1" t="s">
-        <v>548</v>
+        <v>514</v>
       </c>
       <c r="B286" s="1" t="s">
-        <v>549</v>
+        <v>515</v>
       </c>
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A287" s="1" t="s">
-        <v>550</v>
+        <v>516</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>551</v>
+        <v>517</v>
       </c>
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A288" s="1" t="s">
-        <v>552</v>
+        <v>518</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>553</v>
+        <v>519</v>
       </c>
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A289" s="1" t="s">
-        <v>554</v>
+        <v>520</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>555</v>
+        <v>521</v>
       </c>
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A290" s="1" t="s">
-        <v>556</v>
+        <v>522</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>557</v>
+        <v>523</v>
       </c>
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A291" s="1" t="s">
-        <v>558</v>
+        <v>524</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>559</v>
+        <v>525</v>
       </c>
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A292" s="1" t="s">
-        <v>560</v>
+        <v>526</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>671</v>
+        <v>637</v>
       </c>
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A293" s="1" t="s">
-        <v>561</v>
+        <v>527</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>562</v>
+        <v>528</v>
       </c>
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A294" s="1" t="s">
-        <v>563</v>
+        <v>529</v>
       </c>
       <c r="B294" s="1" t="s">
-        <v>672</v>
+        <v>638</v>
       </c>
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A295" s="1" t="s">
-        <v>564</v>
+        <v>530</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>565</v>
+        <v>531</v>
       </c>
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A296" s="1" t="s">
-        <v>566</v>
+        <v>532</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>567</v>
+        <v>533</v>
       </c>
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A297" s="1" t="s">
-        <v>568</v>
+        <v>534</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>569</v>
+        <v>535</v>
       </c>
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A298" s="1" t="s">
-        <v>570</v>
+        <v>536</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>571</v>
+        <v>537</v>
       </c>
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A299" s="1" t="s">
-        <v>572</v>
+        <v>538</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>573</v>
+        <v>539</v>
       </c>
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A300" s="1" t="s">
-        <v>574</v>
+        <v>540</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>575</v>
+        <v>541</v>
       </c>
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A301" s="1" t="s">
-        <v>576</v>
+        <v>542</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>577</v>
+        <v>543</v>
       </c>
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A302" s="1" t="s">
-        <v>578</v>
+        <v>544</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>579</v>
+        <v>545</v>
       </c>
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A303" s="1" t="s">
-        <v>580</v>
+        <v>546</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>581</v>
+        <v>547</v>
       </c>
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A304" s="1" t="s">
-        <v>582</v>
+        <v>548</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>588</v>
+        <v>554</v>
       </c>
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A305" s="1" t="s">
-        <v>589</v>
+        <v>555</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>590</v>
+        <v>556</v>
       </c>
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A306" s="1" t="s">
-        <v>591</v>
+        <v>557</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>592</v>
+        <v>558</v>
       </c>
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A307" s="1" t="s">
-        <v>593</v>
+        <v>559</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>594</v>
+        <v>560</v>
       </c>
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A308" s="1" t="s">
-        <v>595</v>
+        <v>561</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>596</v>
+        <v>562</v>
       </c>
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A309" s="1" t="s">
-        <v>597</v>
+        <v>563</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>598</v>
+        <v>564</v>
       </c>
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A310" s="1" t="s">
-        <v>599</v>
+        <v>565</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>600</v>
+        <v>566</v>
       </c>
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A311" s="1" t="s">
-        <v>601</v>
+        <v>567</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>602</v>
+        <v>568</v>
       </c>
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A312" s="1" t="s">
-        <v>603</v>
+        <v>569</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>604</v>
+        <v>570</v>
       </c>
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A313" s="1" t="s">
-        <v>605</v>
+        <v>571</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>606</v>
+        <v>572</v>
       </c>
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A314" s="1" t="s">
-        <v>607</v>
+        <v>573</v>
       </c>
       <c r="B314" s="1" t="s">
-        <v>608</v>
+        <v>574</v>
       </c>
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A315" s="1" t="s">
-        <v>609</v>
+        <v>575</v>
       </c>
       <c r="B315" s="1" t="s">
-        <v>610</v>
+        <v>576</v>
       </c>
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A316" s="1" t="s">
-        <v>611</v>
+        <v>577</v>
       </c>
       <c r="B316" s="1" t="s">
-        <v>612</v>
+        <v>578</v>
       </c>
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A317" s="1" t="s">
-        <v>613</v>
+        <v>579</v>
       </c>
       <c r="B317" s="1" t="s">
-        <v>614</v>
+        <v>580</v>
       </c>
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A318" s="1" t="s">
-        <v>615</v>
+        <v>581</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>616</v>
+        <v>582</v>
       </c>
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A319" s="1" t="s">
-        <v>617</v>
+        <v>583</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>618</v>
+        <v>584</v>
       </c>
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A320" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="321" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A321" s="1" t="s">
-        <v>619</v>
+        <v>585</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>620</v>
+        <v>586</v>
       </c>
     </row>
     <row r="322" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A322" s="1" t="s">
-        <v>621</v>
+        <v>587</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>622</v>
+        <v>588</v>
       </c>
     </row>
     <row r="323" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A323" s="1" t="s">
-        <v>623</v>
+        <v>589</v>
       </c>
       <c r="B323" s="1" t="s">
-        <v>624</v>
+        <v>590</v>
       </c>
     </row>
     <row r="324" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A324" s="1" t="s">
-        <v>625</v>
+        <v>591</v>
       </c>
       <c r="B324" s="1" t="s">
-        <v>626</v>
+        <v>592</v>
       </c>
     </row>
     <row r="325" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A325" s="1" t="s">
-        <v>627</v>
+        <v>593</v>
       </c>
       <c r="B325" s="1" t="s">
-        <v>628</v>
+        <v>594</v>
       </c>
     </row>
     <row r="326" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A326" s="1" t="s">
-        <v>630</v>
+        <v>596</v>
       </c>
       <c r="B326" s="1" t="s">
-        <v>629</v>
+        <v>595</v>
       </c>
     </row>
     <row r="327" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A327" s="1" t="s">
-        <v>641</v>
+        <v>607</v>
       </c>
       <c r="B327" s="1" t="s">
-        <v>642</v>
+        <v>608</v>
       </c>
     </row>
     <row r="328" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A328" s="1" t="s">
-        <v>631</v>
+        <v>597</v>
       </c>
       <c r="B328" s="1" t="s">
-        <v>632</v>
+        <v>598</v>
       </c>
     </row>
     <row r="329" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A329" s="1" t="s">
-        <v>643</v>
+        <v>609</v>
       </c>
       <c r="B329" s="1" t="s">
-        <v>644</v>
+        <v>610</v>
       </c>
     </row>
     <row r="330" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A330" s="1" t="s">
-        <v>633</v>
+        <v>599</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>634</v>
+        <v>600</v>
       </c>
     </row>
     <row r="331" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A331" s="1" t="s">
-        <v>635</v>
+        <v>601</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>636</v>
+        <v>602</v>
       </c>
     </row>
     <row r="332" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A332" s="1" t="s">
-        <v>637</v>
+        <v>603</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>638</v>
+        <v>604</v>
       </c>
     </row>
     <row r="333" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A333" s="1" t="s">
-        <v>639</v>
+        <v>605</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>640</v>
+        <v>606</v>
       </c>
     </row>
     <row r="334" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A334" s="1" t="s">
-        <v>645</v>
+        <v>611</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>647</v>
+        <v>613</v>
       </c>
     </row>
     <row r="335" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A335" s="1" t="s">
-        <v>646</v>
+        <v>612</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>648</v>
+        <v>614</v>
       </c>
     </row>
     <row r="336" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A336" s="1" t="s">
-        <v>649</v>
+        <v>615</v>
       </c>
       <c r="B336" s="3" t="s">
-        <v>650</v>
+        <v>616</v>
       </c>
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A337" s="1" t="s">
-        <v>651</v>
+        <v>617</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>652</v>
+        <v>618</v>
       </c>
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A338" s="1" t="s">
-        <v>653</v>
+        <v>619</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>655</v>
+        <v>621</v>
       </c>
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A339" s="1" t="s">
-        <v>654</v>
+        <v>620</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>656</v>
+        <v>622</v>
       </c>
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A340" s="1" t="s">
-        <v>657</v>
+        <v>623</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>658</v>
+        <v>624</v>
       </c>
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A341" s="1" t="s">
-        <v>659</v>
+        <v>625</v>
       </c>
       <c r="B341" s="1" t="s">
-        <v>660</v>
+        <v>626</v>
       </c>
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A342" s="1" t="s">
-        <v>661</v>
+        <v>627</v>
       </c>
       <c r="B342" s="1" t="s">
-        <v>662</v>
+        <v>628</v>
       </c>
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A343" s="1" t="s">
-        <v>663</v>
+        <v>629</v>
       </c>
       <c r="B343" s="1" t="s">
-        <v>664</v>
+        <v>630</v>
       </c>
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A344" s="1" t="s">
-        <v>665</v>
+        <v>631</v>
       </c>
       <c r="B344" s="3" t="s">
-        <v>667</v>
+        <v>633</v>
       </c>
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A345" s="1" t="s">
-        <v>666</v>
+        <v>632</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>668</v>
+        <v>634</v>
       </c>
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A346" s="1" t="s">
-        <v>669</v>
+        <v>635</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>670</v>
+        <v>636</v>
       </c>
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A347" s="1" t="s">
-        <v>673</v>
+        <v>639</v>
       </c>
       <c r="B347" s="1" t="s">
-        <v>674</v>
+        <v>640</v>
       </c>
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A348" s="1" t="s">
-        <v>675</v>
+        <v>641</v>
       </c>
       <c r="B348" s="1" t="s">
-        <v>676</v>
+        <v>642</v>
       </c>
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A349" s="1" t="s">
-        <v>677</v>
+        <v>643</v>
       </c>
       <c r="B349" s="1" t="s">
-        <v>678</v>
+        <v>644</v>
       </c>
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A350" s="1" t="s">
-        <v>679</v>
+        <v>645</v>
       </c>
       <c r="B350" s="1" t="s">
-        <v>680</v>
+        <v>646</v>
       </c>
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A351" s="1" t="s">
-        <v>681</v>
+        <v>647</v>
       </c>
       <c r="B351" s="1" t="s">
-        <v>682</v>
+        <v>648</v>
       </c>
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A352" s="1" t="s">
-        <v>683</v>
+        <v>649</v>
       </c>
       <c r="B352" s="1" t="s">
-        <v>684</v>
+        <v>650</v>
       </c>
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A353" s="1" t="s">
-        <v>685</v>
+        <v>651</v>
       </c>
       <c r="B353" s="1" t="s">
-        <v>686</v>
+        <v>652</v>
       </c>
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A354" s="1" t="s">
-        <v>696</v>
+        <v>662</v>
       </c>
       <c r="B354" s="1" t="s">
-        <v>697</v>
+        <v>663</v>
       </c>
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A355" s="1" t="s">
-        <v>687</v>
+        <v>653</v>
       </c>
       <c r="B355" s="1" t="s">
-        <v>688</v>
+        <v>654</v>
       </c>
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A356" s="1" t="s">
-        <v>689</v>
+        <v>655</v>
       </c>
       <c r="B356" s="1" t="s">
-        <v>690</v>
+        <v>656</v>
       </c>
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A357" s="1" t="s">
-        <v>691</v>
+        <v>657</v>
       </c>
       <c r="B357" s="1" t="s">
-        <v>692</v>
+        <v>658</v>
       </c>
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A358" s="1" t="s">
-        <v>693</v>
+        <v>659</v>
       </c>
       <c r="B358" s="1" t="s">
-        <v>694</v>
+        <v>660</v>
       </c>
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A359" s="1" t="s">
-        <v>695</v>
+        <v>661</v>
       </c>
       <c r="B359" s="1" t="s">
-        <v>698</v>
+        <v>664</v>
       </c>
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A360" s="1" t="s">
-        <v>699</v>
+        <v>665</v>
       </c>
       <c r="B360" s="1" t="s">
-        <v>700</v>
+        <v>666</v>
       </c>
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A361" s="1" t="s">
-        <v>701</v>
+        <v>667</v>
       </c>
       <c r="B361" s="1" t="s">
-        <v>702</v>
+        <v>668</v>
       </c>
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A362" s="1" t="s">
-        <v>703</v>
+        <v>669</v>
       </c>
       <c r="B362" s="1" t="s">
-        <v>704</v>
+        <v>670</v>
       </c>
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A363" s="1" t="s">
-        <v>705</v>
+        <v>671</v>
       </c>
       <c r="B363" s="1" t="s">
-        <v>706</v>
+        <v>672</v>
       </c>
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A364" s="1" t="s">
-        <v>721</v>
+        <v>687</v>
       </c>
       <c r="B364" s="1" t="s">
-        <v>707</v>
+        <v>673</v>
       </c>
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A365" s="1" t="s">
-        <v>708</v>
+        <v>674</v>
       </c>
       <c r="B365" s="1" t="s">
-        <v>709</v>
+        <v>675</v>
       </c>
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A366" s="1" t="s">
-        <v>722</v>
+        <v>688</v>
       </c>
       <c r="B366" s="1" t="s">
-        <v>710</v>
+        <v>676</v>
       </c>
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A367" s="1" t="s">
-        <v>723</v>
+        <v>689</v>
       </c>
       <c r="B367" s="1" t="s">
-        <v>711</v>
+        <v>677</v>
       </c>
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A368" s="1" t="s">
-        <v>712</v>
+        <v>678</v>
       </c>
       <c r="B368" s="1" t="s">
-        <v>713</v>
+        <v>679</v>
       </c>
     </row>
     <row r="369" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A369" s="1" t="s">
-        <v>714</v>
+        <v>680</v>
       </c>
       <c r="B369" s="1" t="s">
-        <v>715</v>
+        <v>681</v>
       </c>
     </row>
     <row r="370" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A370" s="1" t="s">
-        <v>719</v>
+        <v>685</v>
       </c>
       <c r="B370" s="1" t="s">
-        <v>716</v>
+        <v>682</v>
       </c>
     </row>
     <row r="371" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A371" s="1" t="s">
-        <v>720</v>
+        <v>686</v>
       </c>
       <c r="B371" s="1" t="s">
-        <v>717</v>
+        <v>683</v>
       </c>
     </row>
     <row r="372" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A372" s="1" t="s">
-        <v>724</v>
+        <v>690</v>
       </c>
       <c r="B372" s="1" t="s">
-        <v>725</v>
+        <v>691</v>
       </c>
     </row>
     <row r="373" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A373" s="1" t="s">
-        <v>718</v>
+        <v>684</v>
       </c>
       <c r="B373" s="1" t="s">
-        <v>726</v>
+        <v>692</v>
       </c>
     </row>
     <row r="374" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A374" s="1" t="s">
-        <v>727</v>
+        <v>693</v>
       </c>
       <c r="B374" s="1" t="s">
-        <v>728</v>
+        <v>694</v>
       </c>
     </row>
     <row r="375" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A375" s="1" t="s">
-        <v>729</v>
+        <v>695</v>
       </c>
       <c r="B375" s="1" t="s">
-        <v>731</v>
+        <v>697</v>
       </c>
     </row>
     <row r="376" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A376" s="1" t="s">
-        <v>730</v>
+        <v>696</v>
       </c>
       <c r="B376" s="1" t="s">
-        <v>732</v>
+        <v>698</v>
       </c>
     </row>
     <row r="377" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A377" s="1" t="s">
-        <v>733</v>
+        <v>699</v>
       </c>
       <c r="B377" s="1" t="s">
-        <v>734</v>
+        <v>700</v>
       </c>
     </row>
     <row r="378" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A378" s="1" t="s">
-        <v>735</v>
+        <v>701</v>
       </c>
       <c r="B378" s="1" t="s">
-        <v>739</v>
+        <v>705</v>
       </c>
     </row>
     <row r="379" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A379" s="1" t="s">
-        <v>736</v>
+        <v>702</v>
       </c>
       <c r="B379" s="1" t="s">
-        <v>740</v>
+        <v>706</v>
       </c>
     </row>
     <row r="380" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A380" s="1" t="s">
-        <v>737</v>
+        <v>703</v>
       </c>
       <c r="B380" s="1" t="s">
-        <v>741</v>
+        <v>707</v>
       </c>
     </row>
     <row r="381" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A381" s="1" t="s">
-        <v>738</v>
+        <v>704</v>
       </c>
       <c r="B381" s="1" t="s">
-        <v>742</v>
+        <v>708</v>
       </c>
     </row>
     <row r="382" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A382" s="1" t="s">
-        <v>743</v>
+        <v>709</v>
       </c>
       <c r="B382" s="1" t="s">
-        <v>744</v>
+        <v>710</v>
       </c>
     </row>
     <row r="383" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A383" s="1" t="s">
-        <v>745</v>
+        <v>711</v>
       </c>
       <c r="B383" s="1" t="s">
-        <v>746</v>
+        <v>712</v>
       </c>
     </row>
     <row r="384" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A384" s="1" t="s">
-        <v>747</v>
+        <v>713</v>
       </c>
       <c r="B384" s="1" t="s">
-        <v>748</v>
+        <v>714</v>
       </c>
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A385" s="1" t="s">
-        <v>749</v>
+        <v>715</v>
       </c>
       <c r="B385" s="1" t="s">
-        <v>750</v>
+        <v>716</v>
       </c>
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A386" s="1" t="s">
-        <v>751</v>
+        <v>717</v>
       </c>
       <c r="B386" s="1" t="s">
-        <v>753</v>
+        <v>719</v>
       </c>
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A387" s="1" t="s">
-        <v>752</v>
+        <v>718</v>
       </c>
       <c r="B387" s="1" t="s">
-        <v>754</v>
+        <v>720</v>
       </c>
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A388" s="1" t="s">
-        <v>755</v>
+        <v>721</v>
       </c>
       <c r="B388" s="1" t="s">
-        <v>756</v>
+        <v>722</v>
       </c>
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A389" s="1" t="s">
-        <v>757</v>
+        <v>723</v>
       </c>
       <c r="B389" s="1" t="s">
-        <v>758</v>
+        <v>724</v>
       </c>
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A390" s="1" t="s">
-        <v>759</v>
+        <v>725</v>
       </c>
       <c r="B390" s="1" t="s">
-        <v>760</v>
+        <v>726</v>
       </c>
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A391" s="1" t="s">
-        <v>761</v>
+        <v>727</v>
       </c>
       <c r="B391" s="1" t="s">
-        <v>762</v>
+        <v>728</v>
       </c>
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A392" s="1" t="s">
-        <v>763</v>
+        <v>729</v>
       </c>
       <c r="B392" s="1" t="s">
-        <v>764</v>
+        <v>730</v>
       </c>
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A393" s="1" t="s">
-        <v>765</v>
+        <v>731</v>
       </c>
       <c r="B393" s="1" t="s">
-        <v>766</v>
+        <v>732</v>
       </c>
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A394" s="1" t="s">
-        <v>767</v>
+        <v>733</v>
       </c>
       <c r="B394" s="1" t="s">
-        <v>768</v>
+        <v>734</v>
       </c>
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A395" s="1" t="s">
-        <v>769</v>
+        <v>735</v>
       </c>
       <c r="B395" s="1" t="s">
-        <v>770</v>
+        <v>736</v>
       </c>
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A396" s="1" t="s">
-        <v>771</v>
+        <v>737</v>
       </c>
       <c r="B396" s="1" t="s">
-        <v>772</v>
+        <v>738</v>
       </c>
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A397" s="1" t="s">
-        <v>773</v>
+        <v>739</v>
       </c>
       <c r="B397" s="1" t="s">
-        <v>774</v>
+        <v>740</v>
       </c>
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A398" s="1" t="s">
-        <v>775</v>
+        <v>741</v>
       </c>
       <c r="B398" s="1" t="s">
-        <v>776</v>
+        <v>742</v>
       </c>
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A399" s="1" t="s">
-        <v>777</v>
+        <v>743</v>
       </c>
       <c r="B399" s="1" t="s">
-        <v>778</v>
+        <v>744</v>
       </c>
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A400" s="1" t="s">
-        <v>779</v>
+        <v>745</v>
       </c>
       <c r="B400" s="1" t="s">
-        <v>780</v>
+        <v>746</v>
       </c>
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A401" s="1" t="s">
-        <v>162</v>
+        <v>136</v>
       </c>
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A402" s="1" t="s">
-        <v>781</v>
+        <v>747</v>
       </c>
       <c r="B402" s="1" t="s">
-        <v>782</v>
+        <v>748</v>
       </c>
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A403" s="1" t="s">
-        <v>783</v>
+        <v>749</v>
       </c>
       <c r="B403" s="1" t="s">
-        <v>784</v>
+        <v>750</v>
       </c>
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A404" s="1" t="s">
-        <v>785</v>
+        <v>751</v>
       </c>
       <c r="B404" s="1" t="s">
-        <v>786</v>
+        <v>752</v>
       </c>
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A405" s="1" t="s">
-        <v>787</v>
+        <v>753</v>
       </c>
       <c r="B405" s="1" t="s">
-        <v>788</v>
+        <v>754</v>
       </c>
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A406" s="1" t="s">
-        <v>789</v>
+        <v>755</v>
       </c>
       <c r="B406" s="1" t="s">
-        <v>790</v>
+        <v>756</v>
       </c>
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A407" s="1" t="s">
-        <v>791</v>
+        <v>757</v>
       </c>
       <c r="B407" s="1" t="s">
-        <v>792</v>
+        <v>758</v>
       </c>
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A408" s="1" t="s">
-        <v>793</v>
+        <v>759</v>
       </c>
       <c r="B408" s="1" t="s">
-        <v>794</v>
+        <v>760</v>
       </c>
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A409" s="1" t="s">
-        <v>795</v>
+        <v>761</v>
       </c>
       <c r="B409" s="1" t="s">
-        <v>796</v>
+        <v>762</v>
       </c>
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A410" s="1" t="s">
-        <v>797</v>
+        <v>763</v>
       </c>
       <c r="B410" s="1" t="s">
-        <v>798</v>
+        <v>764</v>
       </c>
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A411" s="1" t="s">
-        <v>799</v>
+        <v>765</v>
       </c>
       <c r="B411" s="1" t="s">
-        <v>800</v>
+        <v>766</v>
       </c>
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A412" s="1" t="s">
-        <v>801</v>
+        <v>767</v>
       </c>
       <c r="B412" s="1" t="s">
-        <v>802</v>
+        <v>768</v>
       </c>
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A413" s="1" t="s">
-        <v>803</v>
+        <v>769</v>
       </c>
       <c r="B413" s="1" t="s">
-        <v>804</v>
+        <v>770</v>
       </c>
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A414" s="1" t="s">
-        <v>805</v>
+        <v>771</v>
       </c>
       <c r="B414" s="1" t="s">
-        <v>806</v>
+        <v>772</v>
       </c>
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A415" s="1" t="s">
-        <v>807</v>
+        <v>773</v>
       </c>
       <c r="B415" s="1" t="s">
-        <v>808</v>
+        <v>774</v>
       </c>
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A416" s="1" t="s">
-        <v>809</v>
+        <v>775</v>
       </c>
       <c r="B416" s="1" t="s">
-        <v>810</v>
+        <v>776</v>
       </c>
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A417" s="1" t="s">
-        <v>811</v>
+        <v>777</v>
       </c>
       <c r="B417" s="1" t="s">
-        <v>812</v>
+        <v>778</v>
       </c>
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A418" s="1" t="s">
-        <v>813</v>
+        <v>779</v>
       </c>
       <c r="B418" s="1" t="s">
-        <v>814</v>
+        <v>780</v>
       </c>
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A419" s="1" t="s">
-        <v>815</v>
+        <v>781</v>
       </c>
       <c r="B419" s="1" t="s">
-        <v>816</v>
+        <v>782</v>
       </c>
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A420" s="1" t="s">
-        <v>817</v>
+        <v>783</v>
       </c>
       <c r="B420" s="1" t="s">
-        <v>818</v>
+        <v>784</v>
       </c>
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A421" s="1" t="s">
-        <v>819</v>
+        <v>785</v>
       </c>
       <c r="B421" s="1" t="s">
-        <v>820</v>
+        <v>786</v>
       </c>
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A422" s="1" t="s">
-        <v>821</v>
+        <v>787</v>
       </c>
       <c r="B422" s="1" t="s">
-        <v>822</v>
+        <v>788</v>
       </c>
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A423" s="1" t="s">
-        <v>823</v>
+        <v>789</v>
       </c>
       <c r="B423" s="1" t="s">
-        <v>824</v>
+        <v>790</v>
       </c>
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A424" s="1" t="s">
-        <v>825</v>
+        <v>791</v>
       </c>
       <c r="B424" s="1" t="s">
-        <v>826</v>
+        <v>792</v>
       </c>
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A425" s="1" t="s">
-        <v>827</v>
+        <v>793</v>
       </c>
       <c r="B425" s="1" t="s">
-        <v>828</v>
+        <v>794</v>
       </c>
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A426" s="1" t="s">
-        <v>829</v>
+        <v>795</v>
       </c>
       <c r="B426" s="1" t="s">
-        <v>830</v>
+        <v>796</v>
       </c>
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A427" s="1" t="s">
-        <v>831</v>
+        <v>797</v>
       </c>
       <c r="B427" s="1" t="s">
-        <v>832</v>
+        <v>798</v>
       </c>
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A428" s="1" t="s">
-        <v>833</v>
+        <v>799</v>
       </c>
       <c r="B428" s="1" t="s">
-        <v>834</v>
+        <v>800</v>
       </c>
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A429" s="1" t="s">
-        <v>835</v>
+        <v>801</v>
       </c>
       <c r="B429" s="1" t="s">
-        <v>836</v>
+        <v>802</v>
       </c>
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A430" s="1" t="s">
-        <v>837</v>
+        <v>803</v>
       </c>
       <c r="B430" s="1" t="s">
-        <v>838</v>
+        <v>804</v>
       </c>
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A431" s="1" t="s">
-        <v>839</v>
+        <v>805</v>
       </c>
       <c r="B431" s="1" t="s">
-        <v>840</v>
+        <v>806</v>
       </c>
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A432" s="1" t="s">
-        <v>841</v>
+        <v>807</v>
       </c>
       <c r="B432" s="1" t="s">
-        <v>842</v>
+        <v>808</v>
       </c>
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A433" s="1" t="s">
-        <v>843</v>
+        <v>809</v>
       </c>
       <c r="B433" s="1" t="s">
-        <v>844</v>
+        <v>810</v>
       </c>
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A434" s="1" t="s">
-        <v>845</v>
+        <v>811</v>
       </c>
       <c r="B434" s="1" t="s">
-        <v>846</v>
+        <v>812</v>
       </c>
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A435" s="1" t="s">
-        <v>847</v>
+        <v>813</v>
       </c>
       <c r="B435" s="1" t="s">
-        <v>848</v>
+        <v>814</v>
       </c>
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A436" s="1" t="s">
-        <v>849</v>
+        <v>815</v>
       </c>
       <c r="B436" s="1" t="s">
-        <v>850</v>
+        <v>816</v>
       </c>
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A437" s="1" t="s">
-        <v>851</v>
+        <v>817</v>
       </c>
       <c r="B437" s="1" t="s">
-        <v>852</v>
+        <v>818</v>
       </c>
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A438" s="1" t="s">
-        <v>853</v>
+        <v>819</v>
       </c>
       <c r="B438" s="1" t="s">
-        <v>855</v>
+        <v>821</v>
       </c>
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A439" s="1" t="s">
-        <v>854</v>
+        <v>820</v>
       </c>
       <c r="B439" s="1" t="s">
-        <v>856</v>
+        <v>822</v>
       </c>
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A440" s="1" t="s">
-        <v>857</v>
+        <v>823</v>
       </c>
       <c r="B440" s="1" t="s">
-        <v>858</v>
+        <v>824</v>
       </c>
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A441" s="1" t="s">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="B441" s="1" t="s">
-        <v>860</v>
+        <v>826</v>
       </c>
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A442" s="1" t="s">
-        <v>861</v>
+        <v>827</v>
       </c>
       <c r="B442" s="1" t="s">
-        <v>862</v>
+        <v>828</v>
       </c>
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A443" s="1" t="s">
-        <v>863</v>
+        <v>829</v>
       </c>
       <c r="B443" s="1" t="s">
-        <v>864</v>
+        <v>830</v>
       </c>
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A444" s="1" t="s">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="B444" s="1" t="s">
-        <v>866</v>
+        <v>832</v>
       </c>
     </row>
     <row r="445" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A445" s="1" t="s">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="B445" s="1" t="s">
-        <v>868</v>
+        <v>834</v>
       </c>
     </row>
     <row r="446" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A446" s="1" t="s">
-        <v>869</v>
+        <v>835</v>
       </c>
       <c r="B446" s="1" t="s">
-        <v>870</v>
+        <v>836</v>
       </c>
     </row>
     <row r="447" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A447" s="1" t="s">
-        <v>871</v>
+        <v>837</v>
       </c>
       <c r="B447" s="1" t="s">
-        <v>872</v>
+        <v>838</v>
       </c>
     </row>
     <row r="448" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A448" s="1" t="s">
-        <v>873</v>
+        <v>839</v>
       </c>
       <c r="B448" s="1" t="s">
-        <v>874</v>
+        <v>840</v>
       </c>
     </row>
     <row r="449" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A449" s="1" t="s">
-        <v>875</v>
+        <v>841</v>
       </c>
       <c r="B449" s="1" t="s">
-        <v>876</v>
+        <v>842</v>
       </c>
     </row>
     <row r="450" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A450" s="1" t="s">
-        <v>877</v>
+        <v>843</v>
       </c>
       <c r="B450" s="1" t="s">
-        <v>878</v>
+        <v>844</v>
       </c>
     </row>
     <row r="451" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A451" s="1" t="s">
-        <v>879</v>
+        <v>845</v>
       </c>
       <c r="B451" s="1" t="s">
-        <v>880</v>
+        <v>846</v>
       </c>
     </row>
     <row r="452" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A452" s="1" t="s">
-        <v>881</v>
+        <v>847</v>
       </c>
       <c r="B452" s="1" t="s">
-        <v>886</v>
+        <v>852</v>
       </c>
     </row>
     <row r="453" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A453" s="1" t="s">
-        <v>882</v>
+        <v>848</v>
       </c>
       <c r="B453" s="1" t="s">
-        <v>883</v>
+        <v>849</v>
       </c>
     </row>
     <row r="454" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A454" s="1" t="s">
-        <v>884</v>
+        <v>850</v>
       </c>
       <c r="B454" s="1" t="s">
-        <v>885</v>
+        <v>851</v>
       </c>
     </row>
     <row r="455" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A455" s="1" t="s">
-        <v>887</v>
+        <v>853</v>
       </c>
       <c r="B455" s="1" t="s">
-        <v>888</v>
+        <v>854</v>
       </c>
     </row>
     <row r="456" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A456" s="1" t="s">
-        <v>889</v>
+        <v>855</v>
       </c>
       <c r="B456" s="1" t="s">
-        <v>890</v>
+        <v>856</v>
       </c>
     </row>
     <row r="457" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A457" s="1" t="s">
-        <v>891</v>
+        <v>857</v>
       </c>
       <c r="B457" s="1" t="s">
-        <v>892</v>
+        <v>858</v>
       </c>
     </row>
     <row r="458" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A458" s="1" t="s">
-        <v>893</v>
+        <v>859</v>
       </c>
       <c r="B458" s="1" t="s">
-        <v>894</v>
+        <v>860</v>
       </c>
     </row>
     <row r="459" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A459" s="1" t="s">
-        <v>895</v>
+        <v>861</v>
       </c>
       <c r="B459" s="1" t="s">
-        <v>896</v>
+        <v>862</v>
       </c>
     </row>
     <row r="460" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A460" s="1" t="s">
-        <v>897</v>
+        <v>863</v>
       </c>
       <c r="B460" s="1" t="s">
-        <v>898</v>
+        <v>864</v>
       </c>
     </row>
     <row r="461" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A461" s="1" t="s">
-        <v>899</v>
+        <v>865</v>
       </c>
       <c r="B461" s="1" t="s">
-        <v>900</v>
+        <v>866</v>
       </c>
     </row>
     <row r="462" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A462" s="1" t="s">
-        <v>901</v>
+        <v>867</v>
       </c>
       <c r="B462" s="1" t="s">
-        <v>902</v>
+        <v>868</v>
       </c>
     </row>
     <row r="463" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A463" s="1" t="s">
-        <v>903</v>
+        <v>869</v>
       </c>
       <c r="B463" s="1" t="s">
-        <v>904</v>
+        <v>870</v>
       </c>
     </row>
     <row r="464" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A464" s="1" t="s">
-        <v>906</v>
+        <v>872</v>
       </c>
       <c r="B464" s="1" t="s">
-        <v>905</v>
+        <v>871</v>
       </c>
     </row>
     <row r="465" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A465" s="1" t="s">
-        <v>907</v>
+        <v>873</v>
       </c>
       <c r="B465" s="1" t="s">
-        <v>908</v>
+        <v>874</v>
       </c>
     </row>
     <row r="466" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A466" s="1" t="s">
-        <v>909</v>
+        <v>875</v>
       </c>
       <c r="B466" s="1" t="s">
-        <v>910</v>
+        <v>876</v>
       </c>
     </row>
     <row r="467" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A467" s="1" t="s">
-        <v>911</v>
+        <v>877</v>
       </c>
       <c r="B467" s="1" t="s">
-        <v>912</v>
+        <v>878</v>
       </c>
     </row>
     <row r="468" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A468" s="1" t="s">
-        <v>913</v>
+        <v>879</v>
       </c>
       <c r="B468" s="1" t="s">
-        <v>914</v>
+        <v>880</v>
       </c>
     </row>
     <row r="469" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A469" s="1" t="s">
-        <v>915</v>
+        <v>881</v>
       </c>
       <c r="B469" s="1" t="s">
-        <v>916</v>
+        <v>882</v>
       </c>
     </row>
     <row r="470" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A470" s="1" t="s">
-        <v>917</v>
+        <v>883</v>
       </c>
       <c r="B470" s="1" t="s">
-        <v>918</v>
+        <v>884</v>
       </c>
     </row>
     <row r="471" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A471" s="1" t="s">
-        <v>919</v>
+        <v>885</v>
       </c>
       <c r="B471" s="1" t="s">
-        <v>920</v>
+        <v>886</v>
       </c>
     </row>
     <row r="472" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A472" s="1" t="s">
-        <v>922</v>
+        <v>888</v>
       </c>
       <c r="B472" s="1" t="s">
-        <v>921</v>
+        <v>887</v>
       </c>
     </row>
     <row r="473" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A473" s="1" t="s">
-        <v>923</v>
+        <v>889</v>
       </c>
       <c r="B473" s="1" t="s">
-        <v>924</v>
+        <v>890</v>
       </c>
     </row>
     <row r="474" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A474" s="1" t="s">
-        <v>925</v>
+        <v>891</v>
       </c>
       <c r="B474" s="1" t="s">
-        <v>926</v>
+        <v>892</v>
       </c>
     </row>
     <row r="475" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A475" s="1" t="s">
-        <v>927</v>
+        <v>893</v>
       </c>
       <c r="B475" s="1" t="s">
-        <v>928</v>
+        <v>894</v>
       </c>
     </row>
     <row r="476" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A476" s="1" t="s">
-        <v>929</v>
+        <v>895</v>
       </c>
       <c r="B476" s="1" t="s">
-        <v>930</v>
+        <v>896</v>
       </c>
     </row>
     <row r="477" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A477" s="1" t="s">
-        <v>931</v>
+        <v>897</v>
       </c>
       <c r="B477" s="1" t="s">
-        <v>932</v>
+        <v>898</v>
       </c>
     </row>
     <row r="478" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A478" s="1" t="s">
-        <v>933</v>
+        <v>899</v>
       </c>
       <c r="B478" s="1" t="s">
-        <v>934</v>
+        <v>900</v>
       </c>
     </row>
     <row r="479" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A479" s="1" t="s">
-        <v>935</v>
+        <v>901</v>
       </c>
       <c r="B479" s="1" t="s">
-        <v>936</v>
+        <v>902</v>
       </c>
     </row>
     <row r="480" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A480" s="1" t="s">
-        <v>937</v>
+        <v>903</v>
       </c>
       <c r="B480" s="1" t="s">
-        <v>938</v>
+        <v>904</v>
       </c>
     </row>
     <row r="481" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A481" s="1" t="s">
-        <v>937</v>
+        <v>903</v>
       </c>
       <c r="B481" s="1" t="s">
-        <v>939</v>
+        <v>905</v>
       </c>
     </row>
     <row r="482" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A482" s="1" t="s">
-        <v>940</v>
+        <v>906</v>
       </c>
       <c r="B482" s="1" t="s">
-        <v>941</v>
+        <v>907</v>
       </c>
     </row>
     <row r="483" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A483" s="1" t="s">
-        <v>942</v>
+        <v>908</v>
       </c>
       <c r="B483" s="1" t="s">
-        <v>943</v>
+        <v>909</v>
       </c>
     </row>
     <row r="484" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A484" s="1" t="s">
-        <v>944</v>
+        <v>910</v>
       </c>
       <c r="B484" s="1" t="s">
-        <v>945</v>
+        <v>911</v>
       </c>
     </row>
     <row r="485" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A485" s="1" t="s">
-        <v>946</v>
+        <v>912</v>
       </c>
       <c r="B485" s="1" t="s">
-        <v>947</v>
+        <v>913</v>
       </c>
     </row>
     <row r="486" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A486" s="1" t="s">
-        <v>948</v>
+        <v>914</v>
       </c>
       <c r="B486" s="1" t="s">
-        <v>949</v>
+        <v>915</v>
       </c>
     </row>
     <row r="487" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A487" s="1" t="s">
-        <v>958</v>
+        <v>924</v>
       </c>
       <c r="B487" s="1" t="s">
-        <v>950</v>
+        <v>916</v>
       </c>
     </row>
     <row r="488" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A488" s="1" t="s">
-        <v>952</v>
+        <v>918</v>
       </c>
       <c r="B488" s="1" t="s">
-        <v>951</v>
+        <v>917</v>
       </c>
     </row>
     <row r="489" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A489" s="1" t="s">
-        <v>953</v>
+        <v>919</v>
       </c>
       <c r="B489" s="1" t="s">
-        <v>954</v>
+        <v>920</v>
       </c>
     </row>
     <row r="490" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A490" s="1" t="s">
-        <v>955</v>
+        <v>921</v>
       </c>
       <c r="B490" s="1" t="s">
-        <v>956</v>
+        <v>922</v>
       </c>
     </row>
     <row r="491" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A491" s="1" t="s">
-        <v>957</v>
+        <v>923</v>
       </c>
     </row>
     <row r="492" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A492" s="1" t="s">
-        <v>959</v>
+        <v>925</v>
       </c>
       <c r="B492" s="1" t="s">
-        <v>960</v>
+        <v>926</v>
       </c>
     </row>
     <row r="493" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A493" s="1" t="s">
-        <v>961</v>
+        <v>927</v>
       </c>
       <c r="B493" s="1" t="s">
-        <v>962</v>
+        <v>928</v>
       </c>
     </row>
     <row r="494" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A494" s="1" t="s">
-        <v>963</v>
+        <v>929</v>
       </c>
       <c r="B494" s="1" t="s">
-        <v>964</v>
+        <v>930</v>
       </c>
     </row>
     <row r="495" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A495" s="1" t="s">
-        <v>965</v>
+        <v>931</v>
       </c>
       <c r="B495" s="1" t="s">
-        <v>966</v>
+        <v>932</v>
       </c>
     </row>
     <row r="496" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A496" s="1" t="s">
-        <v>967</v>
+        <v>933</v>
       </c>
       <c r="B496" s="1" t="s">
-        <v>968</v>
+        <v>934</v>
       </c>
     </row>
     <row r="497" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A497" s="1" t="s">
-        <v>969</v>
+        <v>935</v>
       </c>
       <c r="B497" s="1" t="s">
-        <v>970</v>
+        <v>936</v>
       </c>
     </row>
     <row r="498" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A498" s="1" t="s">
-        <v>971</v>
+        <v>937</v>
       </c>
       <c r="B498" s="1" t="s">
-        <v>972</v>
+        <v>938</v>
       </c>
     </row>
     <row r="499" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A499" s="1" t="s">
-        <v>973</v>
+        <v>939</v>
       </c>
       <c r="B499" s="1" t="s">
-        <v>974</v>
+        <v>940</v>
       </c>
     </row>
     <row r="500" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A500" s="1" t="s">
-        <v>975</v>
+        <v>941</v>
       </c>
       <c r="B500" s="1" t="s">
-        <v>977</v>
+        <v>943</v>
       </c>
     </row>
     <row r="501" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A501" s="1" t="s">
-        <v>976</v>
+        <v>942</v>
       </c>
       <c r="B501" s="1" t="s">
-        <v>978</v>
+        <v>944</v>
       </c>
     </row>
     <row r="502" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A502" s="1" t="s">
-        <v>979</v>
+        <v>945</v>
       </c>
       <c r="B502" s="1" t="s">
-        <v>980</v>
+        <v>946</v>
       </c>
     </row>
     <row r="503" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A503" s="1" t="s">
-        <v>981</v>
+        <v>947</v>
       </c>
       <c r="B503" s="1" t="s">
-        <v>982</v>
+        <v>948</v>
       </c>
     </row>
     <row r="504" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A504" s="1" t="s">
-        <v>983</v>
+        <v>949</v>
       </c>
       <c r="B504" s="1" t="s">
-        <v>984</v>
+        <v>950</v>
       </c>
     </row>
     <row r="505" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A505" s="1" t="s">
-        <v>985</v>
+        <v>951</v>
       </c>
       <c r="B505" s="1" t="s">
-        <v>986</v>
+        <v>952</v>
       </c>
     </row>
     <row r="506" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A506" s="1" t="s">
-        <v>987</v>
+        <v>953</v>
       </c>
       <c r="B506" s="1" t="s">
-        <v>988</v>
+        <v>954</v>
       </c>
     </row>
     <row r="507" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A507" s="1" t="s">
-        <v>989</v>
+        <v>955</v>
       </c>
       <c r="B507" s="1" t="s">
-        <v>990</v>
+        <v>956</v>
       </c>
     </row>
     <row r="508" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A508" s="1" t="s">
-        <v>991</v>
+        <v>957</v>
       </c>
       <c r="B508" s="1" t="s">
-        <v>992</v>
+        <v>958</v>
       </c>
     </row>
     <row r="509" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A509" s="1" t="s">
-        <v>993</v>
+        <v>959</v>
       </c>
       <c r="B509" s="1" t="s">
-        <v>994</v>
+        <v>960</v>
       </c>
     </row>
     <row r="510" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A510" s="1" t="s">
-        <v>995</v>
+        <v>961</v>
       </c>
       <c r="B510" s="1" t="s">
-        <v>996</v>
+        <v>962</v>
       </c>
     </row>
     <row r="511" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A511" s="1" t="s">
-        <v>997</v>
+        <v>963</v>
       </c>
       <c r="B511" s="1" t="s">
-        <v>998</v>
+        <v>964</v>
       </c>
     </row>
     <row r="512" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A512" s="1" t="s">
-        <v>999</v>
+        <v>965</v>
       </c>
       <c r="B512" s="1" t="s">
-        <v>1000</v>
+        <v>966</v>
       </c>
     </row>
     <row r="513" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A513" s="1" t="s">
-        <v>1001</v>
+        <v>967</v>
       </c>
       <c r="B513" s="1" t="s">
-        <v>1002</v>
+        <v>968</v>
       </c>
     </row>
     <row r="514" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A514" s="1" t="s">
-        <v>1003</v>
+        <v>969</v>
       </c>
       <c r="B514" s="1" t="s">
-        <v>1004</v>
+        <v>970</v>
       </c>
     </row>
     <row r="515" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A515" s="1" t="s">
-        <v>1005</v>
+        <v>971</v>
       </c>
       <c r="B515" s="1" t="s">
-        <v>1006</v>
+        <v>972</v>
       </c>
     </row>
     <row r="516" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A516" s="1" t="s">
-        <v>1007</v>
+        <v>973</v>
       </c>
       <c r="B516" s="1" t="s">
-        <v>1008</v>
+        <v>974</v>
       </c>
     </row>
     <row r="517" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A517" s="1" t="s">
-        <v>1009</v>
+        <v>975</v>
       </c>
       <c r="B517" s="1" t="s">
-        <v>1010</v>
+        <v>976</v>
       </c>
     </row>
     <row r="518" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A518" s="1" t="s">
-        <v>1011</v>
+        <v>977</v>
       </c>
       <c r="B518" s="1" t="s">
-        <v>1012</v>
+        <v>978</v>
       </c>
     </row>
     <row r="519" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A519" s="1" t="s">
-        <v>1013</v>
+        <v>979</v>
       </c>
       <c r="B519" s="1" t="s">
-        <v>1014</v>
+        <v>980</v>
       </c>
     </row>
     <row r="520" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A520" s="1" t="s">
-        <v>995</v>
+        <v>961</v>
       </c>
       <c r="B520" s="1" t="s">
-        <v>1015</v>
+        <v>981</v>
       </c>
     </row>
     <row r="521" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A521" s="1" t="s">
-        <v>1016</v>
+        <v>982</v>
       </c>
       <c r="B521" s="1" t="s">
-        <v>1017</v>
+        <v>983</v>
       </c>
     </row>
     <row r="522" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A522" s="1" t="s">
-        <v>1018</v>
+        <v>984</v>
       </c>
       <c r="B522" s="1" t="s">
-        <v>1019</v>
+        <v>985</v>
       </c>
     </row>
     <row r="523" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A523" s="1" t="s">
-        <v>1020</v>
+        <v>986</v>
       </c>
       <c r="B523" s="1" t="s">
-        <v>1022</v>
+        <v>988</v>
       </c>
     </row>
     <row r="524" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A524" s="1" t="s">
-        <v>1021</v>
+        <v>987</v>
       </c>
       <c r="B524" s="1" t="s">
-        <v>1023</v>
+        <v>989</v>
       </c>
     </row>
     <row r="525" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A525" s="1" t="s">
-        <v>1024</v>
+        <v>990</v>
       </c>
       <c r="B525" s="1" t="s">
-        <v>1025</v>
+        <v>991</v>
       </c>
     </row>
     <row r="526" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A526" s="1" t="s">
-        <v>1026</v>
+        <v>992</v>
       </c>
       <c r="B526" s="1" t="s">
-        <v>1027</v>
+        <v>993</v>
       </c>
     </row>
     <row r="527" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A527" s="1" t="s">
-        <v>1028</v>
+        <v>994</v>
       </c>
       <c r="B527" s="1" t="s">
-        <v>1029</v>
+        <v>995</v>
       </c>
     </row>
     <row r="528" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A528" s="1" t="s">
-        <v>1030</v>
+        <v>996</v>
       </c>
       <c r="B528" s="1" t="s">
-        <v>1031</v>
+        <v>997</v>
       </c>
     </row>
     <row r="529" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A529" s="1" t="s">
-        <v>1032</v>
+        <v>998</v>
       </c>
       <c r="B529" s="1" t="s">
-        <v>1033</v>
+        <v>999</v>
       </c>
     </row>
     <row r="530" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A530" s="1" t="s">
-        <v>1034</v>
+        <v>1000</v>
       </c>
       <c r="B530" s="1" t="s">
-        <v>1035</v>
+        <v>1001</v>
       </c>
     </row>
     <row r="531" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A531" s="1" t="s">
-        <v>1036</v>
+        <v>1002</v>
       </c>
       <c r="B531" s="1" t="s">
-        <v>1037</v>
+        <v>1003</v>
       </c>
     </row>
     <row r="532" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A532" s="1" t="s">
-        <v>1038</v>
+        <v>1004</v>
       </c>
       <c r="B532" s="1" t="s">
-        <v>1039</v>
+        <v>1005</v>
       </c>
     </row>
     <row r="533" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A533" s="1" t="s">
-        <v>1040</v>
+        <v>1006</v>
       </c>
       <c r="B533" s="1" t="s">
-        <v>1041</v>
+        <v>1007</v>
       </c>
     </row>
     <row r="534" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A534" s="1" t="s">
-        <v>1042</v>
+        <v>1008</v>
       </c>
       <c r="B534" s="1" t="s">
-        <v>1043</v>
+        <v>1009</v>
       </c>
     </row>
     <row r="535" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A535" s="1" t="s">
-        <v>1044</v>
+        <v>1010</v>
       </c>
       <c r="B535" s="1" t="s">
-        <v>1045</v>
+        <v>1011</v>
       </c>
     </row>
     <row r="536" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A536" s="1" t="s">
-        <v>1047</v>
+        <v>1013</v>
       </c>
       <c r="B536" s="1" t="s">
-        <v>1046</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="537" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A537" s="1" t="s">
-        <v>1048</v>
+        <v>1014</v>
       </c>
       <c r="B537" s="1" t="s">
-        <v>1049</v>
+        <v>1015</v>
       </c>
     </row>
     <row r="538" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A538" s="1" t="s">
-        <v>1050</v>
+        <v>1016</v>
       </c>
       <c r="B538" s="1" t="s">
-        <v>1051</v>
+        <v>1017</v>
       </c>
     </row>
     <row r="539" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A539" s="1" t="s">
-        <v>1052</v>
+        <v>1018</v>
       </c>
       <c r="B539" s="1" t="s">
-        <v>1053</v>
+        <v>1019</v>
       </c>
     </row>
     <row r="540" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A540" s="1" t="s">
-        <v>1054</v>
+        <v>1020</v>
       </c>
       <c r="B540" s="1" t="s">
-        <v>1055</v>
+        <v>1021</v>
       </c>
     </row>
     <row r="541" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A541" s="1" t="s">
-        <v>1056</v>
+        <v>1022</v>
       </c>
       <c r="B541" s="1" t="s">
-        <v>1057</v>
+        <v>1023</v>
       </c>
     </row>
     <row r="542" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A542" s="1" t="s">
-        <v>1058</v>
+        <v>1024</v>
       </c>
       <c r="B542" t="s">
-        <v>1059</v>
+        <v>1025</v>
       </c>
     </row>
     <row r="543" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A543" s="1" t="s">
-        <v>1060</v>
+        <v>1026</v>
       </c>
       <c r="B543" s="1" t="s">
-        <v>1061</v>
+        <v>1027</v>
       </c>
     </row>
     <row r="544" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A544" s="1" t="s">
-        <v>1062</v>
+        <v>1028</v>
       </c>
       <c r="B544" s="1" t="s">
-        <v>1063</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="545" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A545" s="1" t="s">
-        <v>1064</v>
+        <v>1030</v>
       </c>
       <c r="B545" s="1" t="s">
-        <v>1065</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="546" spans="1:2" x14ac:dyDescent="0.4">
       <c r="A546" s="1" t="s">
-        <v>1066</v>
+        <v>1032</v>
       </c>
       <c r="B546" s="1" t="s">
-        <v>1067</v>
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
